--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO130"/>
+  <dimension ref="A1:AO129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>1.81</v>
@@ -679,7 +679,7 @@
         <v>2.02</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -706,7 +706,7 @@
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.98</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G3" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="H3" t="n">
         <v>7.2</v>
@@ -817,7 +817,7 @@
         <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G4" t="n">
         <v>1.65</v>
@@ -952,7 +952,7 @@
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -1087,7 +1087,7 @@
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.31</v>
@@ -1138,13 +1138,13 @@
         <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>65</v>
@@ -1156,7 +1156,7 @@
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>65</v>
@@ -1165,7 +1165,7 @@
         <v>26</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>40</v>
@@ -1210,7 +1210,7 @@
         <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
         <v>2.2</v>
@@ -1219,10 +1219,10 @@
         <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
         <v>1.77</v>
@@ -1357,10 +1357,10 @@
         <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1381,7 +1381,7 @@
         <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>2.4</v>
+        <v>1.81</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1480,7 +1480,7 @@
         <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H8" t="n">
         <v>2.72</v>
@@ -1528,7 +1528,7 @@
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="G9" t="n">
         <v>1.47</v>
@@ -1627,7 +1627,7 @@
         <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,19 +1636,19 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>2.2</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G10" t="n">
         <v>2.96</v>
@@ -1912,7 +1912,7 @@
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
         <v>2.16</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>2.66</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2053,7 +2053,7 @@
         <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
         <v>2.56</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2173,7 +2173,7 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>3.25</v>
@@ -2185,16 +2185,16 @@
         <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
         <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
         <v>1.84</v>
@@ -2719,7 +2719,7 @@
         <v>1.84</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
         <v>1.84</v>
@@ -2830,19 +2830,19 @@
         <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>5.7</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,13 +2857,13 @@
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
         <v>1.68</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
         <v>2.62</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
         <v>1.93</v>
@@ -2986,22 +2986,22 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.2</v>
+        <v>2.92</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="R19" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="T19" t="n">
         <v>1.46</v>
@@ -3019,46 +3019,46 @@
         <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI19" t="n">
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM19" t="n">
         <v>48</v>
@@ -3394,7 +3394,7 @@
         <v>1.64</v>
       </c>
       <c r="O22" t="n">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
         <v>1.64</v>
@@ -3640,7 +3640,7 @@
         <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
@@ -3658,37 +3658,37 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>1.72</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.05</v>
       </c>
       <c r="P24" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
         <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -4192,7 +4192,7 @@
         <v>3.55</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
         <v>1.35</v>
@@ -4210,7 +4210,7 @@
         <v>2.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
         <v>1.41</v>
@@ -4252,13 +4252,13 @@
         <v>18.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF28" t="n">
         <v>17.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
@@ -4318,7 +4318,7 @@
         <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I29" t="n">
         <v>2.4</v>
@@ -4327,7 +4327,7 @@
         <v>3.9</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.26</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="H30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J30" t="n">
         <v>4</v>
       </c>
-      <c r="I30" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.9</v>
-      </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,34 +4471,34 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
         <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="T30" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V30" t="n">
         <v>1.26</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X30" t="n">
         <v>980</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="G31" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="H31" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="W31" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4741,13 +4741,13 @@
         <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O32" t="n">
         <v>1.54</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q32" t="n">
         <v>2.62</v>
@@ -4759,10 +4759,10 @@
         <v>5.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V32" t="n">
         <v>1.34</v>
@@ -4858,13 +4858,13 @@
         <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K33" t="n">
         <v>950</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8.6</v>
+        <v>1.09</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="I35" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="J35" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="K35" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,16 +5146,16 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O35" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="R35" t="n">
         <v>1.44</v>
@@ -5170,34 +5170,34 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="W35" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
         <v>1000</v>
@@ -5206,7 +5206,7 @@
         <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
@@ -5425,7 +5425,7 @@
         <v>2.36</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R37" t="n">
         <v>1.53</v>
@@ -5476,7 +5476,7 @@
         <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI37" t="n">
         <v>980</v>
@@ -5530,16 +5530,16 @@
         <v>2.32</v>
       </c>
       <c r="G38" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K38" t="n">
         <v>4.1</v>
@@ -5551,7 +5551,7 @@
         <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O38" t="n">
         <v>1.22</v>
@@ -5563,7 +5563,7 @@
         <v>1.68</v>
       </c>
       <c r="R38" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S38" t="n">
         <v>2.46</v>
@@ -5578,61 +5578,61 @@
         <v>1.46</v>
       </c>
       <c r="W38" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Z38" t="n">
         <v>980</v>
       </c>
       <c r="AA38" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AB38" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE38" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF38" t="n">
         <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ38" t="n">
         <v>980</v>
       </c>
       <c r="AK38" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM38" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AN38" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -5755,7 +5755,7 @@
         <v>55</v>
       </c>
       <c r="AK39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="n">
         <v>44</v>
@@ -5764,7 +5764,7 @@
         <v>65</v>
       </c>
       <c r="AN39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO39" t="n">
         <v>15.5</v>
@@ -5935,13 +5935,13 @@
         <v>1.77</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J41" t="n">
         <v>3.95</v>
@@ -5968,22 +5968,22 @@
         <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S41" t="n">
         <v>2.48</v>
       </c>
       <c r="T41" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U41" t="n">
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W41" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X41" t="n">
         <v>28</v>
@@ -6034,10 +6034,10 @@
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6079,10 +6079,10 @@
         <v>1.67</v>
       </c>
       <c r="J42" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K42" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="O42" t="n">
         <v>1.2</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H43" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="I43" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J43" t="n">
         <v>3.85</v>
@@ -6349,7 +6349,7 @@
         <v>11.5</v>
       </c>
       <c r="J44" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="K44" t="n">
         <v>6.2</v>
@@ -6658,7 +6658,7 @@
         <v>1.42</v>
       </c>
       <c r="W46" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X46" t="n">
         <v>9.6</v>
@@ -7018,10 +7018,10 @@
         <v>3.75</v>
       </c>
       <c r="H49" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J49" t="n">
         <v>3.7</v>
@@ -7036,88 +7036,88 @@
         <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>2.18</v>
+        <v>4.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.24</v>
       </c>
       <c r="P49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U49" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q49" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V49" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W49" t="n">
         <v>1.36</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="G50" t="n">
         <v>1.45</v>
@@ -7156,46 +7156,46 @@
         <v>7.2</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J50" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K50" t="n">
         <v>6.2</v>
       </c>
       <c r="L50" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M50" t="n">
         <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>1.06</v>
+        <v>1.8</v>
       </c>
       <c r="O50" t="n">
         <v>1.1</v>
       </c>
       <c r="P50" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="R50" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U50" t="n">
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W50" t="n">
         <v>3.15</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="G52" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="H52" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I52" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K52" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7441,25 +7441,25 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="O52" t="n">
         <v>1.19</v>
       </c>
       <c r="P52" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R52" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S52" t="n">
         <v>2.26</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U52" t="n">
         <v>1.01</v>
@@ -7468,7 +7468,7 @@
         <v>1.13</v>
       </c>
       <c r="W52" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7825,16 +7825,16 @@
         <v>1.09</v>
       </c>
       <c r="G55" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="H55" t="n">
         <v>1.04</v>
       </c>
       <c r="I55" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K55" t="n">
         <v>980</v>
@@ -7873,7 +7873,7 @@
         <v>1.16</v>
       </c>
       <c r="W55" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -8098,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I57" t="n">
         <v>3.05</v>
@@ -8107,13 +8107,13 @@
         <v>3.05</v>
       </c>
       <c r="K57" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
@@ -8128,10 +8128,10 @@
         <v>2.24</v>
       </c>
       <c r="R57" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S57" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="T57" t="n">
         <v>1.85</v>
@@ -8155,10 +8155,10 @@
         <v>980</v>
       </c>
       <c r="AA57" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB57" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC57" t="n">
         <v>7.6</v>
@@ -8170,31 +8170,31 @@
         <v>980</v>
       </c>
       <c r="AF57" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG57" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AH57" t="n">
         <v>980</v>
       </c>
       <c r="AI57" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ57" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AK57" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AL57" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN57" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AO57" t="n">
         <v>40</v>
@@ -8227,112 +8227,112 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H58" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K58" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O58" t="n">
         <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q58" t="n">
         <v>2.2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S58" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T58" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U58" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V58" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W58" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="X58" t="n">
         <v>14</v>
       </c>
       <c r="Y58" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AA58" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD58" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AE58" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AF58" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG58" t="n">
         <v>11</v>
       </c>
       <c r="AH58" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI58" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ58" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK58" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL58" t="n">
         <v>50</v>
       </c>
       <c r="AM58" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN58" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO58" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59">
@@ -8362,28 +8362,28 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="G59" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H59" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="I59" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K59" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L59" t="n">
         <v>1.42</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
         <v>3.7</v>
@@ -8410,25 +8410,25 @@
         <v>2.1</v>
       </c>
       <c r="V59" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W59" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X59" t="n">
         <v>14</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z59" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA59" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB59" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC59" t="n">
         <v>7.8</v>
@@ -8440,34 +8440,34 @@
         <v>23</v>
       </c>
       <c r="AF59" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG59" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI59" t="n">
         <v>38</v>
       </c>
       <c r="AJ59" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL59" t="n">
         <v>60</v>
       </c>
       <c r="AM59" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN59" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO59" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G60" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3.15</v>
       </c>
       <c r="H60" t="n">
         <v>2.62</v>
@@ -8530,7 +8530,7 @@
         <v>1.78</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R60" t="n">
         <v>1.29</v>
@@ -8545,7 +8545,7 @@
         <v>2.02</v>
       </c>
       <c r="V60" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W60" t="n">
         <v>1.47</v>
@@ -8773,10 +8773,10 @@
         <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="I62" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J62" t="n">
         <v>4</v>
@@ -8791,7 +8791,7 @@
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O62" t="n">
         <v>1.38</v>
@@ -8815,7 +8815,7 @@
         <v>1.84</v>
       </c>
       <c r="V62" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="W62" t="n">
         <v>1.16</v>
@@ -8833,7 +8833,7 @@
         <v>15</v>
       </c>
       <c r="AB62" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC62" t="n">
         <v>8.800000000000001</v>
@@ -8842,7 +8842,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE62" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF62" t="n">
         <v>55</v>
@@ -8902,13 +8902,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="G63" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="H63" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -8953,7 +8953,7 @@
         <v>1.5</v>
       </c>
       <c r="W63" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9043,16 +9043,16 @@
         <v>1.49</v>
       </c>
       <c r="H64" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I64" t="n">
         <v>7.2</v>
       </c>
       <c r="J64" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K64" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>5.6</v>
       </c>
       <c r="L64" t="n">
         <v>1.2</v>
@@ -9061,28 +9061,28 @@
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O64" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P64" t="n">
         <v>3.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R64" t="n">
         <v>2.02</v>
       </c>
       <c r="S64" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T64" t="n">
         <v>1.55</v>
       </c>
       <c r="U64" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="V64" t="n">
         <v>1.16</v>
@@ -9091,13 +9091,13 @@
         <v>3</v>
       </c>
       <c r="X64" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y64" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="Z64" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA64" t="n">
         <v>190</v>
@@ -9139,7 +9139,7 @@
         <v>65</v>
       </c>
       <c r="AN64" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO64" t="n">
         <v>42</v>
@@ -9208,7 +9208,7 @@
         <v>1.4</v>
       </c>
       <c r="R65" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S65" t="n">
         <v>1.95</v>
@@ -9307,31 +9307,31 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G66" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="I66" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="J66" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K66" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L66" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M66" t="n">
         <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O66" t="n">
         <v>1.33</v>
@@ -9340,7 +9340,7 @@
         <v>1.89</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R66" t="n">
         <v>1.34</v>
@@ -9355,10 +9355,10 @@
         <v>1.87</v>
       </c>
       <c r="V66" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="W66" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X66" t="n">
         <v>960</v>
@@ -9376,7 +9376,7 @@
         <v>960</v>
       </c>
       <c r="AC66" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD66" t="n">
         <v>960</v>
@@ -9385,7 +9385,7 @@
         <v>21</v>
       </c>
       <c r="AF66" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG66" t="n">
         <v>960</v>
@@ -9412,7 +9412,7 @@
         <v>75</v>
       </c>
       <c r="AO66" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="67">
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H67" t="n">
         <v>1.38</v>
@@ -9454,7 +9454,7 @@
         <v>1.42</v>
       </c>
       <c r="J67" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
         <v>5.8</v>
@@ -9496,64 +9496,64 @@
         <v>1.09</v>
       </c>
       <c r="X67" t="n">
-        <v>29</v>
+        <v>960</v>
       </c>
       <c r="Y67" t="n">
-        <v>12</v>
+        <v>960</v>
       </c>
       <c r="Z67" t="n">
-        <v>11.5</v>
+        <v>960</v>
       </c>
       <c r="AA67" t="n">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="AB67" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AC67" t="n">
-        <v>18</v>
+        <v>960</v>
       </c>
       <c r="AD67" t="n">
-        <v>15.5</v>
+        <v>960</v>
       </c>
       <c r="AE67" t="n">
-        <v>22</v>
+        <v>960</v>
       </c>
       <c r="AF67" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG67" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AH67" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AI67" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AJ67" t="n">
         <v>1000</v>
       </c>
       <c r="AK67" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL67" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM67" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN67" t="n">
         <v>1000</v>
       </c>
       <c r="AO67" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9568,67 +9568,67 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FC Nordsjaelland</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>PFC Levski Sofia</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.33</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>1.55</v>
+        <v>1000</v>
       </c>
       <c r="H68" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="I68" t="n">
-        <v>1000</v>
+        <v>1.39</v>
       </c>
       <c r="J68" t="n">
-        <v>1.09</v>
+        <v>5.1</v>
       </c>
       <c r="K68" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L68" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M68" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="O68" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="P68" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.13</v>
+        <v>1.79</v>
       </c>
       <c r="R68" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="S68" t="n">
-        <v>1.86</v>
+        <v>2.84</v>
       </c>
       <c r="T68" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="U68" t="n">
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.06</v>
+        <v>3.5</v>
       </c>
       <c r="W68" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9688,7 +9688,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9703,67 +9703,67 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>FC Nordsjaelland</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>1.33</v>
       </c>
       <c r="G69" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="H69" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="I69" t="n">
-        <v>1.41</v>
+        <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>5.1</v>
+        <v>1.09</v>
       </c>
       <c r="K69" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N69" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="O69" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="P69" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.77</v>
+        <v>1.13</v>
       </c>
       <c r="R69" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="S69" t="n">
-        <v>2.84</v>
+        <v>1.86</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U69" t="n">
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>3.4</v>
+        <v>1.06</v>
       </c>
       <c r="W69" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9856,7 +9856,7 @@
         <v>3.25</v>
       </c>
       <c r="I70" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J70" t="n">
         <v>2.38</v>
@@ -9871,22 +9871,22 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q70" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R70" t="n">
         <v>1.12</v>
       </c>
       <c r="S70" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,7 +9895,7 @@
         <v>1.44</v>
       </c>
       <c r="V70" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W70" t="n">
         <v>1.59</v>
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G73" t="n">
         <v>1.6</v>
@@ -10267,7 +10267,7 @@
         <v>4.2</v>
       </c>
       <c r="K73" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L73" t="n">
         <v>1.34</v>
@@ -10288,13 +10288,13 @@
         <v>1.64</v>
       </c>
       <c r="R73" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S73" t="n">
         <v>2.72</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U73" t="n">
         <v>1.01</v>
@@ -10306,37 +10306,37 @@
         <v>2.66</v>
       </c>
       <c r="X73" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y73" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z73" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AA73" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB73" t="n">
         <v>960</v>
       </c>
       <c r="AC73" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE73" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF73" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG73" t="n">
-        <v>13.5</v>
+        <v>960</v>
       </c>
       <c r="AH73" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI73" t="n">
         <v>100</v>
@@ -10348,16 +10348,16 @@
         <v>960</v>
       </c>
       <c r="AL73" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM73" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN73" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO73" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
@@ -10387,19 +10387,19 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G74" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="H74" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I74" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K74" t="n">
         <v>980</v>
@@ -10414,16 +10414,16 @@
         <v>2.02</v>
       </c>
       <c r="O74" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P74" t="n">
         <v>2.02</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="R74" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S74" t="n">
         <v>2.92</v>
@@ -10432,13 +10432,13 @@
         <v>1.01</v>
       </c>
       <c r="U74" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="V74" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W74" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10546,28 +10546,28 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="O75" t="n">
         <v>1.24</v>
       </c>
       <c r="P75" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q75" t="n">
         <v>1.64</v>
       </c>
       <c r="R75" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S75" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U75" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V75" t="n">
         <v>1.83</v>
@@ -10660,7 +10660,7 @@
         <v>1.67</v>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H76" t="n">
         <v>6</v>
@@ -10696,7 +10696,7 @@
         <v>1.31</v>
       </c>
       <c r="S76" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T76" t="n">
         <v>2.06</v>
@@ -10810,7 +10810,7 @@
         <v>3.9</v>
       </c>
       <c r="L77" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -10825,7 +10825,7 @@
         <v>2.1</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R77" t="n">
         <v>1.43</v>
@@ -10861,7 +10861,7 @@
         <v>9.6</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD77" t="n">
         <v>19</v>
@@ -10885,7 +10885,7 @@
         <v>20</v>
       </c>
       <c r="AK77" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL77" t="n">
         <v>32</v>
@@ -10936,7 +10936,7 @@
         <v>2.76</v>
       </c>
       <c r="I78" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J78" t="n">
         <v>3.45</v>
@@ -10957,10 +10957,10 @@
         <v>1.36</v>
       </c>
       <c r="P78" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R78" t="n">
         <v>1.33</v>
@@ -10972,10 +10972,10 @@
         <v>1.81</v>
       </c>
       <c r="U78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V78" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W78" t="n">
         <v>1.54</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G79" t="n">
         <v>1.93</v>
@@ -11083,31 +11083,31 @@
         <v>1.01</v>
       </c>
       <c r="M79" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N79" t="n">
-        <v>1.65</v>
+        <v>2.86</v>
       </c>
       <c r="O79" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P79" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q79" t="n">
         <v>2.32</v>
       </c>
       <c r="R79" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S79" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V79" t="n">
         <v>1.22</v>
@@ -11116,64 +11116,64 @@
         <v>2.06</v>
       </c>
       <c r="X79" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z79" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA79" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB79" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC79" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD79" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE79" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF79" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH79" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI79" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK79" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL79" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM79" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN79" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO79" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11188,127 +11188,127 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.24</v>
+        <v>1.45</v>
       </c>
       <c r="G80" t="n">
-        <v>2.96</v>
+        <v>1.46</v>
       </c>
       <c r="H80" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T80" t="n">
         <v>2.16</v>
       </c>
-      <c r="I80" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K80" t="n">
-        <v>980</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P80" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q80" t="n">
+      <c r="U80" t="n">
         <v>1.83</v>
       </c>
-      <c r="R80" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S80" t="n">
-        <v>3</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V80" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="W80" t="n">
-        <v>1.51</v>
+        <v>3.15</v>
       </c>
       <c r="X80" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z80" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB80" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC80" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD80" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE80" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF80" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG80" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH80" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK80" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL80" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM80" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN80" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11323,127 +11323,127 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.46</v>
+        <v>2.68</v>
       </c>
       <c r="G81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V81" t="n">
         <v>1.47</v>
       </c>
-      <c r="H81" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K81" t="n">
-        <v>5</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N81" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P81" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S81" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T81" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V81" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W81" t="n">
-        <v>3.1</v>
+        <v>1.58</v>
       </c>
       <c r="X81" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF81" t="n">
         <v>16</v>
       </c>
-      <c r="Y81" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD81" t="n">
+      <c r="AG81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="n">
         <v>32</v>
       </c>
-      <c r="AE81" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>15</v>
-      </c>
       <c r="AL81" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO81" t="n">
         <v>40</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>210</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11458,121 +11458,121 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="G82" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="H82" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="I82" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J82" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="K82" t="n">
-        <v>3.4</v>
+        <v>980</v>
       </c>
       <c r="L82" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>3.35</v>
+        <v>1.75</v>
       </c>
       <c r="O82" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="P82" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R82" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S82" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="T82" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="U82" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V82" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="W82" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="X82" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y82" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z82" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA82" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC82" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD82" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE82" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF82" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG82" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH82" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI82" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ82" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK82" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL82" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM82" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO82" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83">
@@ -11605,10 +11605,10 @@
         <v>1.69</v>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H83" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I83" t="n">
         <v>7</v>
@@ -11617,7 +11617,7 @@
         <v>3.8</v>
       </c>
       <c r="K83" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L83" t="n">
         <v>1.48</v>
@@ -11653,7 +11653,7 @@
         <v>1.16</v>
       </c>
       <c r="W83" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X83" t="n">
         <v>11</v>
@@ -11665,13 +11665,13 @@
         <v>50</v>
       </c>
       <c r="AA83" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB83" t="n">
         <v>6.8</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD83" t="n">
         <v>26</v>
@@ -11707,7 +11707,7 @@
         <v>13.5</v>
       </c>
       <c r="AO83" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -11761,7 +11761,7 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="O84" t="n">
         <v>1.18</v>
@@ -11779,7 +11779,7 @@
         <v>2.34</v>
       </c>
       <c r="T84" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U84" t="n">
         <v>1.61</v>
@@ -11791,10 +11791,10 @@
         <v>6</v>
       </c>
       <c r="X84" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Y84" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z84" t="n">
         <v>1000</v>
@@ -11806,40 +11806,40 @@
         <v>960</v>
       </c>
       <c r="AC84" t="n">
-        <v>24</v>
+        <v>960</v>
       </c>
       <c r="AD84" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE84" t="n">
         <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>10.5</v>
+        <v>960</v>
       </c>
       <c r="AG84" t="n">
         <v>960</v>
       </c>
       <c r="AH84" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI84" t="n">
         <v>1000</v>
       </c>
       <c r="AJ84" t="n">
-        <v>12.5</v>
+        <v>960</v>
       </c>
       <c r="AK84" t="n">
         <v>960</v>
       </c>
       <c r="AL84" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AO84" t="n">
         <v>1000</v>
@@ -12031,16 +12031,16 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="O86" t="n">
         <v>1.01</v>
       </c>
       <c r="P86" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="R86" t="n">
         <v>1.34</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.14</v>
+        <v>4.7</v>
       </c>
       <c r="G87" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H87" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="I87" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="J87" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K87" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L87" t="n">
         <v>1.24</v>
@@ -12166,88 +12166,88 @@
         <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>1.58</v>
+        <v>6</v>
       </c>
       <c r="O87" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P87" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="R87" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S87" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="T87" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U87" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="V87" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="W87" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="X87" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y87" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z87" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AB87" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC87" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AD87" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE87" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AF87" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG87" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH87" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI87" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK87" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL87" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM87" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN87" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO87" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="88">
@@ -12277,13 +12277,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H88" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="I88" t="n">
         <v>3.2</v>
@@ -12295,25 +12295,25 @@
         <v>980</v>
       </c>
       <c r="L88" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="O88" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P88" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R88" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S88" t="n">
         <v>3.7</v>
@@ -12328,7 +12328,7 @@
         <v>1.46</v>
       </c>
       <c r="W88" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12415,7 +12415,7 @@
         <v>2.4</v>
       </c>
       <c r="G89" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>2.32</v>
@@ -12571,7 +12571,7 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>9.6</v>
+        <v>4.3</v>
       </c>
       <c r="O90" t="n">
         <v>1.06</v>
@@ -12589,7 +12589,7 @@
         <v>1.58</v>
       </c>
       <c r="T90" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="U90" t="n">
         <v>2.38</v>
@@ -12688,7 +12688,7 @@
         <v>2.86</v>
       </c>
       <c r="H91" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I91" t="n">
         <v>1000</v>
@@ -12721,7 +12721,7 @@
         <v>1.32</v>
       </c>
       <c r="S91" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T91" t="n">
         <v>1.01</v>
@@ -12730,7 +12730,7 @@
         <v>1.01</v>
       </c>
       <c r="V91" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W91" t="n">
         <v>1.53</v>
@@ -12817,34 +12817,34 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="G92" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="H92" t="n">
-        <v>2.76</v>
+        <v>1.04</v>
       </c>
       <c r="I92" t="n">
         <v>1000</v>
       </c>
       <c r="J92" t="n">
-        <v>2.76</v>
+        <v>4.4</v>
       </c>
       <c r="K92" t="n">
         <v>1000</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P92" t="n">
         <v>1.84</v>
@@ -12853,76 +12853,76 @@
         <v>1.71</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -12952,10 +12952,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H93" t="n">
         <v>3.55</v>
@@ -12964,22 +12964,22 @@
         <v>5.6</v>
       </c>
       <c r="J93" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K93" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P93" t="n">
         <v>1.46</v>
@@ -12988,76 +12988,76 @@
         <v>2.28</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="G94" t="n">
         <v>4.9</v>
@@ -13096,103 +13096,103 @@
         <v>2.06</v>
       </c>
       <c r="I94" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J94" t="n">
         <v>2.34</v>
       </c>
       <c r="K94" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P94" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q94" t="n">
         <v>2.12</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95">
@@ -13222,10 +13222,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.24</v>
+        <v>3.9</v>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H95" t="n">
         <v>1.63</v>
@@ -13240,16 +13240,16 @@
         <v>1000</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P95" t="n">
         <v>2.12</v>
@@ -13258,82 +13258,82 @@
         <v>1.58</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -13348,127 +13348,127 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="G96" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="I96" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="J96" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="K96" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P96" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13483,127 +13483,127 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="H97" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J97" t="n">
         <v>3.25</v>
       </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3</v>
-      </c>
       <c r="K97" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L97" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N97" t="n">
-        <v>3.35</v>
+        <v>1.88</v>
       </c>
       <c r="O97" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R97" t="n">
         <v>1.34</v>
       </c>
-      <c r="P97" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>2</v>
-      </c>
-      <c r="R97" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S97" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="T97" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U97" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V97" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="W97" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="X97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA97" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB97" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC97" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE97" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG97" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI97" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM97" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN97" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO97" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -13618,121 +13618,121 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rot-Weiss Essen</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="G98" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H98" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I98" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J98" t="n">
-        <v>2.76</v>
+        <v>3.3</v>
       </c>
       <c r="K98" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P98" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA98" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE98" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN98" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO98" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
@@ -13762,13 +13762,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="G99" t="n">
         <v>1.58</v>
       </c>
       <c r="H99" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I99" t="n">
         <v>1000</v>
@@ -13777,97 +13777,97 @@
         <v>4.3</v>
       </c>
       <c r="K99" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P99" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100">
@@ -13897,10 +13897,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G100" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>5.2</v>
@@ -13915,16 +13915,16 @@
         <v>4.3</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P100" t="n">
         <v>1.94</v>
@@ -13933,76 +13933,76 @@
         <v>1.9</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y100" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z100" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE100" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF100" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG100" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI100" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK100" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL100" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN100" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101">
@@ -14032,13 +14032,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.48</v>
+        <v>1.09</v>
       </c>
       <c r="G101" t="n">
         <v>3.75</v>
       </c>
       <c r="H101" t="n">
-        <v>2.14</v>
+        <v>1.09</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -14047,19 +14047,19 @@
         <v>2.5</v>
       </c>
       <c r="K101" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P101" t="n">
         <v>2.32</v>
@@ -14068,76 +14068,76 @@
         <v>1.4</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102">
@@ -14167,118 +14167,118 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G102" t="n">
         <v>1.61</v>
       </c>
       <c r="H102" t="n">
-        <v>1.11</v>
+        <v>5.3</v>
       </c>
       <c r="I102" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="J102" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K102" t="n">
         <v>5.7</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P102" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R102" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q102" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0</v>
-      </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14293,121 +14293,121 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P103" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">
@@ -14428,31 +14428,31 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>1.62</v>
       </c>
       <c r="H104" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="I104" t="n">
-        <v>4.3</v>
+        <v>22</v>
       </c>
       <c r="J104" t="n">
-        <v>2.36</v>
+        <v>3.7</v>
       </c>
       <c r="K104" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -14461,16 +14461,16 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P104" t="n">
         <v>1.25</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14563,121 +14563,121 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.23</v>
+        <v>3.7</v>
       </c>
       <c r="G105" t="n">
-        <v>1.62</v>
+        <v>4.3</v>
       </c>
       <c r="H105" t="n">
-        <v>4.1</v>
+        <v>2.18</v>
       </c>
       <c r="I105" t="n">
-        <v>22</v>
+        <v>2.32</v>
       </c>
       <c r="J105" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K105" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P105" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106">
@@ -14698,121 +14698,121 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H106" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>5</v>
+      </c>
+      <c r="K106" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S106" t="n">
         <v>3.7</v>
       </c>
-      <c r="G106" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K106" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O106" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P106" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0</v>
-      </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V106" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB106" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD106" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AE106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF106" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG106" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH106" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK106" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL106" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="107">
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="G107" t="n">
         <v>4.6</v>
@@ -14860,16 +14860,16 @@
         <v>3.55</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P107" t="n">
         <v>1.58</v>
@@ -14878,76 +14878,76 @@
         <v>2.66</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z107" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AA107" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB107" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD107" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE107" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF107" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG107" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH107" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108">
@@ -14968,121 +14968,121 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="H108" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I108" t="n">
         <v>11.5</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
+        <v>4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="X108" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG108" t="n">
         <v>13.5</v>
       </c>
-      <c r="J108" t="n">
-        <v>5</v>
-      </c>
-      <c r="K108" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O108" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P108" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0</v>
-      </c>
-      <c r="T108" t="n">
-        <v>0</v>
-      </c>
-      <c r="U108" t="n">
-        <v>0</v>
-      </c>
-      <c r="V108" t="n">
-        <v>0</v>
-      </c>
-      <c r="W108" t="n">
-        <v>0</v>
-      </c>
-      <c r="X108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0</v>
-      </c>
       <c r="AH108" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK108" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL108" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="109">
@@ -15130,10 +15130,10 @@
         <v>3.55</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N109" t="n">
         <v>3.2</v>
@@ -15148,76 +15148,76 @@
         <v>2.16</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z109" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA109" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB109" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC109" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE109" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF109" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG109" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI109" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK109" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL109" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110">
@@ -15238,31 +15238,31 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="G110" t="n">
-        <v>1.53</v>
+        <v>1000</v>
       </c>
       <c r="H110" t="n">
-        <v>9.800000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I110" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="J110" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="K110" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -15271,16 +15271,16 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -15373,127 +15373,127 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="G111" t="n">
-        <v>1000</v>
+        <v>1.68</v>
       </c>
       <c r="H111" t="n">
-        <v>1.04</v>
+        <v>6.6</v>
       </c>
       <c r="I111" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J111" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="K111" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P111" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -15508,121 +15508,121 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="G112" t="n">
-        <v>1.68</v>
+        <v>3.35</v>
       </c>
       <c r="H112" t="n">
-        <v>6.6</v>
+        <v>2.54</v>
       </c>
       <c r="I112" t="n">
-        <v>8.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="J112" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="K112" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>3.35</v>
+        <v>1.41</v>
       </c>
       <c r="O112" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P112" t="n">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U112" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
@@ -15643,121 +15643,121 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P113" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114">
@@ -15790,7 +15790,7 @@
         <v>2.06</v>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H114" t="n">
         <v>4.2</v>
@@ -15799,13 +15799,13 @@
         <v>4.3</v>
       </c>
       <c r="J114" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K114" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M114" t="n">
         <v>1.07</v>
@@ -15820,13 +15820,13 @@
         <v>2.02</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R114" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S114" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T114" t="n">
         <v>1.77</v>
@@ -15835,37 +15835,37 @@
         <v>2.22</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X114" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y114" t="n">
         <v>16</v>
       </c>
       <c r="Z114" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA114" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB114" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC114" t="n">
         <v>8</v>
       </c>
       <c r="AD114" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE114" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF114" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG114" t="n">
         <v>10.5</v>
@@ -15883,16 +15883,16 @@
         <v>21</v>
       </c>
       <c r="AL114" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM114" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN114" t="n">
         <v>14</v>
       </c>
       <c r="AO114" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115">
@@ -15934,13 +15934,13 @@
         <v>5.9</v>
       </c>
       <c r="J115" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K115" t="n">
         <v>4.4</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M115" t="n">
         <v>1.05</v>
@@ -15970,22 +15970,22 @@
         <v>2.2</v>
       </c>
       <c r="V115" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X115" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Y115" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z115" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA115" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB115" t="n">
         <v>10.5</v>
@@ -15994,40 +15994,40 @@
         <v>9.6</v>
       </c>
       <c r="AD115" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE115" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AF115" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG115" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH115" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI115" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ115" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AK115" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL115" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM115" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN115" t="n">
         <v>8.4</v>
       </c>
       <c r="AO115" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116">
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q116" t="n">
         <v>2.5</v>
@@ -16192,16 +16192,16 @@
         </is>
       </c>
       <c r="F117" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H117" t="n">
         <v>2.58</v>
       </c>
-      <c r="G117" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2.66</v>
-      </c>
       <c r="I117" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J117" t="n">
         <v>3.3</v>
@@ -16222,10 +16222,10 @@
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -16636,7 +16636,7 @@
         <v>1.3</v>
       </c>
       <c r="S120" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="T120" t="n">
         <v>1.81</v>
@@ -16870,19 +16870,19 @@
         <v>3.55</v>
       </c>
       <c r="G122" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="H122" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="I122" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K122" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -16978,7 +16978,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -16988,132 +16988,132 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F123" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5</v>
+      </c>
+      <c r="J123" t="n">
         <v>2.38</v>
       </c>
-      <c r="G123" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K123" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="R123" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="X123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO123" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -17123,36 +17123,36 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="G124" t="n">
-        <v>2.66</v>
+        <v>1.83</v>
       </c>
       <c r="H124" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="I124" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="J124" t="n">
-        <v>2.38</v>
+        <v>3.35</v>
       </c>
       <c r="K124" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -17167,10 +17167,10 @@
         <v>0</v>
       </c>
       <c r="P124" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="R124" t="n">
         <v>0</v>
@@ -17275,7 +17275,7 @@
         <v>1.33</v>
       </c>
       <c r="G125" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H125" t="n">
         <v>11</v>
@@ -17383,7 +17383,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -17393,36 +17393,36 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="G126" t="n">
-        <v>1.83</v>
+        <v>1000</v>
       </c>
       <c r="H126" t="n">
-        <v>6.2</v>
+        <v>1.04</v>
       </c>
       <c r="I126" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J126" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K126" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -17437,10 +17437,10 @@
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -17518,7 +17518,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -17528,36 +17528,36 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CD Olimpia</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G127" t="n">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="H127" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="I127" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="J127" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K127" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -17566,16 +17566,16 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P127" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -17653,7 +17653,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -17668,31 +17668,31 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="G128" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
-        <v>5</v>
+        <v>1.91</v>
       </c>
       <c r="I128" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J128" t="n">
-        <v>3.45</v>
+        <v>1.91</v>
       </c>
       <c r="K128" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -17701,16 +17701,16 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -17788,7 +17788,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -17803,28 +17803,28 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="H129" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="I129" t="n">
         <v>1000</v>
       </c>
       <c r="J129" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="K129" t="n">
         <v>1000</v>
@@ -17842,10 +17842,10 @@
         <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
@@ -17917,141 +17917,6 @@
         <v>0</v>
       </c>
       <c r="AO129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2025-11-23</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Colo Colo</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Union La Calera</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R130" t="n">
-        <v>0</v>
-      </c>
-      <c r="S130" t="n">
-        <v>0</v>
-      </c>
-      <c r="T130" t="n">
-        <v>0</v>
-      </c>
-      <c r="U130" t="n">
-        <v>0</v>
-      </c>
-      <c r="V130" t="n">
-        <v>0</v>
-      </c>
-      <c r="W130" t="n">
-        <v>0</v>
-      </c>
-      <c r="X130" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO130" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-23.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="H2" t="n">
         <v>1.81</v>
       </c>
       <c r="I2" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J2" t="n">
         <v>3.15</v>
@@ -706,7 +706,7 @@
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.98</v>
@@ -715,7 +715,7 @@
         <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>1.21</v>
@@ -1519,10 +1519,10 @@
         <v>2.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
@@ -1822,7 +1822,7 @@
         <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
@@ -1837,10 +1837,10 @@
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>50</v>
@@ -1849,7 +1849,7 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
         <v>42</v>
@@ -1894,7 +1894,7 @@
         <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.65</v>
@@ -2035,13 +2035,13 @@
         <v>6.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.87</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2059,10 +2059,10 @@
         <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.37</v>
@@ -2158,7 +2158,7 @@
         <v>5.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I13" t="n">
         <v>2.1</v>
@@ -2167,7 +2167,7 @@
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.38</v>
@@ -2176,7 +2176,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
@@ -2185,13 +2185,13 @@
         <v>1.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
         <v>1.04</v>
@@ -2293,16 +2293,16 @@
         <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2311,19 +2311,19 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
         <v>2.9</v>
@@ -2335,7 +2335,7 @@
         <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W14" t="n">
         <v>1.43</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G15" t="n">
         <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
         <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2452,7 +2452,7 @@
         <v>1.04</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
         <v>1.87</v>
@@ -2461,7 +2461,7 @@
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
         <v>1.04</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.31</v>
@@ -2590,7 +2590,7 @@
         <v>1.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
         <v>1.31</v>
@@ -2608,7 +2608,7 @@
         <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,7 +2695,7 @@
         <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>2.98</v>
@@ -2722,16 +2722,16 @@
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q17" t="n">
         <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T17" t="n">
         <v>1.04</v>
@@ -2743,7 +2743,7 @@
         <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2863,7 +2863,7 @@
         <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
         <v>2.46</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
         <v>3.9</v>
@@ -2986,34 +2986,34 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>2.92</v>
+        <v>6.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T19" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="U19" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X19" t="n">
         <v>38</v>
@@ -3052,7 +3052,7 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3067,7 +3067,7 @@
         <v>6.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
         <v>5.8</v>
@@ -3106,13 +3106,13 @@
         <v>1.71</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="J20" t="n">
-        <v>2.86</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>6.8</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
@@ -3133,7 +3133,7 @@
         <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
         <v>2.68</v>
@@ -3145,10 +3145,10 @@
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3235,19 +3235,19 @@
         <v>1.41</v>
       </c>
       <c r="G21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H21" t="n">
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="J21" t="n">
         <v>4.2</v>
       </c>
       <c r="K21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,13 +3256,13 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q21" t="n">
         <v>1.53</v>
@@ -3274,10 +3274,10 @@
         <v>2.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.12</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G22" t="n">
         <v>4.7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="I22" t="n">
         <v>2.56</v>
@@ -3382,7 +3382,7 @@
         <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3403,10 +3403,10 @@
         <v>2.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T22" t="n">
         <v>1.04</v>
@@ -3520,19 +3520,19 @@
         <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>1.75</v>
+        <v>2.74</v>
       </c>
       <c r="O23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G24" t="n">
         <v>2.06</v>
@@ -3649,10 +3649,10 @@
         <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,28 +3661,28 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O24" t="n">
         <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S24" t="n">
         <v>2.56</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.2</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
         <v>2.86</v>
@@ -3781,13 +3781,13 @@
         <v>2.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3805,22 +3805,22 @@
         <v>1.83</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R25" t="n">
         <v>1.3</v>
       </c>
       <c r="S25" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
         <v>1.54</v>
@@ -3943,16 +3943,16 @@
         <v>1.79</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S26" t="n">
         <v>1.79</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
         <v>1.01</v>
@@ -4081,13 +4081,13 @@
         <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
         <v>1.22</v>
@@ -4180,19 +4180,19 @@
         <v>2.12</v>
       </c>
       <c r="G28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
         <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
         <v>1.35</v>
@@ -4201,13 +4201,13 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
         <v>1.83</v>
@@ -4219,70 +4219,70 @@
         <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V28" t="n">
         <v>1.36</v>
       </c>
       <c r="W28" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
         <v>70</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
         <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AF28" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI28" t="n">
         <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK28" t="n">
         <v>27</v>
       </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
         <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
         <v>3.2</v>
@@ -4321,13 +4321,13 @@
         <v>2.26</v>
       </c>
       <c r="I29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
         <v>3.9</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.26</v>
@@ -4354,13 +4354,13 @@
         <v>2.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="U29" t="n">
         <v>2.68</v>
       </c>
       <c r="V29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W29" t="n">
         <v>1.45</v>
@@ -4369,52 +4369,52 @@
         <v>32</v>
       </c>
       <c r="Y29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC29" t="n">
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI29" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
         <v>48</v>
       </c>
       <c r="AK29" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
         <v>55</v>
       </c>
       <c r="AN29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO29" t="n">
         <v>11.5</v>
@@ -4501,25 +4501,25 @@
         <v>2.06</v>
       </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y30" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z30" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="n">
         <v>110</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
         <v>12</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
         <v>60</v>
@@ -4531,19 +4531,19 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
         <v>85</v>
@@ -4552,7 +4552,7 @@
         <v>10.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
@@ -4624,16 +4624,16 @@
         <v>5.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
         <v>1.82</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X31" t="n">
         <v>8.199999999999999</v>
@@ -4735,40 +4735,40 @@
         <v>3.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V32" t="n">
         <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4864,7 +4864,7 @@
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="n">
         <v>950</v>
@@ -4894,10 +4894,10 @@
         <v>1.36</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V33" t="n">
         <v>1.01</v>
@@ -4990,13 +4990,13 @@
         <v>2.2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J34" t="n">
         <v>3.5</v>
@@ -5011,34 +5011,34 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O34" t="n">
         <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S34" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
         <v>1.35</v>
       </c>
       <c r="W34" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5140,13 +5140,13 @@
         <v>6.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.74</v>
+        <v>2.44</v>
       </c>
       <c r="O35" t="n">
         <v>1.01</v>
@@ -5164,10 +5164,10 @@
         <v>2.86</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V35" t="n">
         <v>1.22</v>
@@ -5218,7 +5218,7 @@
         <v>32</v>
       </c>
       <c r="AL35" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -5266,7 +5266,7 @@
         <v>2.22</v>
       </c>
       <c r="I36" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J36" t="n">
         <v>3.95</v>
@@ -5311,16 +5311,16 @@
         <v>1.43</v>
       </c>
       <c r="X36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA36" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AB36" t="n">
         <v>17</v>
@@ -5332,16 +5332,16 @@
         <v>11.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG36" t="n">
         <v>14.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
         <v>36</v>
@@ -5401,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J37" t="n">
         <v>3.85</v>
@@ -5431,13 +5431,13 @@
         <v>1.46</v>
       </c>
       <c r="S37" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="V37" t="n">
         <v>1.46</v>
@@ -5452,7 +5452,7 @@
         <v>16</v>
       </c>
       <c r="Z37" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA37" t="n">
         <v>50</v>
@@ -5467,28 +5467,28 @@
         <v>14</v>
       </c>
       <c r="AE37" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF37" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG37" t="n">
         <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI37" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK37" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL37" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM37" t="n">
         <v>65</v>
@@ -5527,61 +5527,61 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.09</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
         <v>17.5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="I38" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="K38" t="n">
-        <v>950</v>
+        <v>7.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="O38" t="n">
         <v>1.23</v>
       </c>
       <c r="P38" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="S38" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V38" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="W38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X38" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Y38" t="n">
         <v>980</v>
@@ -5605,16 +5605,16 @@
         <v>980</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH38" t="n">
         <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
         <v>1000</v>
@@ -5632,7 +5632,7 @@
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="39">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G39" t="n">
         <v>2.96</v>
       </c>
       <c r="H39" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I39" t="n">
         <v>3.6</v>
@@ -5677,7 +5677,7 @@
         <v>3.05</v>
       </c>
       <c r="K39" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5695,16 +5695,16 @@
         <v>1.91</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R39" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S39" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U39" t="n">
         <v>2.32</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G40" t="n">
         <v>2.54</v>
@@ -5806,13 +5806,13 @@
         <v>2.76</v>
       </c>
       <c r="I40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
         <v>3.9</v>
       </c>
       <c r="K40" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
         <v>1.32</v>
@@ -5833,7 +5833,7 @@
         <v>1.64</v>
       </c>
       <c r="R40" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S40" t="n">
         <v>2.62</v>
@@ -5842,7 +5842,7 @@
         <v>1.58</v>
       </c>
       <c r="U40" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V40" t="n">
         <v>1.5</v>
@@ -5860,7 +5860,7 @@
         <v>24</v>
       </c>
       <c r="AA40" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB40" t="n">
         <v>15</v>
@@ -5872,7 +5872,7 @@
         <v>14</v>
       </c>
       <c r="AE40" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF40" t="n">
         <v>19.5</v>
@@ -5884,10 +5884,10 @@
         <v>18.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ40" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK40" t="n">
         <v>25</v>
@@ -5959,7 +5959,7 @@
         <v>4.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
         <v>2.26</v>
@@ -5986,58 +5986,58 @@
         <v>2.12</v>
       </c>
       <c r="X41" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z41" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA41" t="n">
         <v>100</v>
       </c>
       <c r="AB41" t="n">
-        <v>14</v>
+        <v>960</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE41" t="n">
         <v>60</v>
       </c>
       <c r="AF41" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>960</v>
       </c>
       <c r="AH41" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI41" t="n">
         <v>60</v>
       </c>
       <c r="AJ41" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK41" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM41" t="n">
         <v>90</v>
       </c>
       <c r="AN41" t="n">
-        <v>11.5</v>
+        <v>960</v>
       </c>
       <c r="AO41" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -6112,7 +6112,7 @@
         <v>1.61</v>
       </c>
       <c r="U42" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V42" t="n">
         <v>1.23</v>
@@ -6148,7 +6148,7 @@
         <v>17.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
         <v>28</v>
@@ -6220,13 +6220,13 @@
         <v>3.9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O43" t="n">
         <v>1.01</v>
@@ -6238,16 +6238,16 @@
         <v>1.77</v>
       </c>
       <c r="R43" t="n">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V43" t="n">
         <v>1.41</v>
@@ -6256,37 +6256,37 @@
         <v>1.58</v>
       </c>
       <c r="X43" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y43" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z43" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
         <v>65</v>
       </c>
       <c r="AB43" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD43" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>44</v>
       </c>
       <c r="AF43" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI43" t="n">
         <v>55</v>
@@ -6376,13 +6376,13 @@
         <v>1.45</v>
       </c>
       <c r="S44" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V44" t="n">
         <v>2.3</v>
@@ -6478,13 +6478,13 @@
         <v>1.43</v>
       </c>
       <c r="H45" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I45" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="K45" t="n">
         <v>6.2</v>
@@ -6496,19 +6496,19 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
       </c>
       <c r="P45" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R45" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
@@ -6517,7 +6517,7 @@
         <v>1.61</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>1.1</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G46" t="n">
         <v>1.7</v>
       </c>
       <c r="H46" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="J46" t="n">
         <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6658,7 +6658,7 @@
         <v>1.07</v>
       </c>
       <c r="W46" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="G47" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="H47" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J47" t="n">
         <v>2.78</v>
       </c>
       <c r="K47" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,16 +6766,16 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="O47" t="n">
         <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R47" t="n">
         <v>1.18</v>
@@ -6793,7 +6793,7 @@
         <v>1.45</v>
       </c>
       <c r="W47" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6919,10 +6919,10 @@
         <v>5.7</v>
       </c>
       <c r="T48" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="U48" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="V48" t="n">
         <v>1.42</v>
@@ -7021,13 +7021,13 @@
         <v>2.52</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K49" t="n">
-        <v>5.1</v>
+        <v>110</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7060,7 +7060,7 @@
         <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W49" t="n">
         <v>1.41</v>
@@ -7177,10 +7177,10 @@
         <v>1.18</v>
       </c>
       <c r="P50" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="R50" t="n">
         <v>1.5</v>
@@ -7189,7 +7189,7 @@
         <v>2.22</v>
       </c>
       <c r="T50" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U50" t="n">
         <v>2.52</v>
@@ -7294,7 +7294,7 @@
         <v>2.22</v>
       </c>
       <c r="J51" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K51" t="n">
         <v>4.1</v>
@@ -7345,7 +7345,7 @@
         <v>16</v>
       </c>
       <c r="AA51" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB51" t="n">
         <v>17.5</v>
@@ -7375,7 +7375,7 @@
         <v>65</v>
       </c>
       <c r="AK51" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="n">
         <v>55</v>
@@ -7462,7 +7462,7 @@
         <v>1.5</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V52" t="n">
         <v>1.11</v>
@@ -7498,7 +7498,7 @@
         <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AH52" t="n">
         <v>1000</v>
@@ -7588,7 +7588,7 @@
         <v>1.71</v>
       </c>
       <c r="R53" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S53" t="n">
         <v>1.71</v>
@@ -7726,13 +7726,13 @@
         <v>1.51</v>
       </c>
       <c r="S54" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T54" t="n">
         <v>1.66</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V54" t="n">
         <v>1.11</v>
@@ -7837,7 +7837,7 @@
         <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7864,7 +7864,7 @@
         <v>2.8</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U55" t="n">
         <v>2.02</v>
@@ -7972,7 +7972,7 @@
         <v>2.74</v>
       </c>
       <c r="K56" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7981,22 +7981,22 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="O56" t="n">
         <v>1.01</v>
       </c>
       <c r="P56" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R56" t="n">
         <v>1.18</v>
       </c>
       <c r="S56" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -8095,7 +8095,7 @@
         <v>1.09</v>
       </c>
       <c r="G57" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>1.04</v>
@@ -8107,7 +8107,7 @@
         <v>3.95</v>
       </c>
       <c r="K57" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8125,16 +8125,16 @@
         <v>2.06</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R57" t="n">
         <v>1.42</v>
       </c>
       <c r="S57" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U57" t="n">
         <v>1.01</v>
@@ -8143,7 +8143,7 @@
         <v>1.16</v>
       </c>
       <c r="W57" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G58" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
@@ -8242,7 +8242,7 @@
         <v>3.3</v>
       </c>
       <c r="K58" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8263,7 +8263,7 @@
         <v>1.64</v>
       </c>
       <c r="R58" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S58" t="n">
         <v>2.5</v>
@@ -8278,7 +8278,7 @@
         <v>1.23</v>
       </c>
       <c r="W58" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8398,7 +8398,7 @@
         <v>1.85</v>
       </c>
       <c r="R59" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S59" t="n">
         <v>3</v>
@@ -8557,7 +8557,7 @@
         <v>10.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AA60" t="n">
         <v>55</v>
@@ -8572,16 +8572,16 @@
         <v>14</v>
       </c>
       <c r="AE60" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF60" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AG60" t="n">
         <v>14</v>
       </c>
       <c r="AH60" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AI60" t="n">
         <v>60</v>
@@ -8773,16 +8773,16 @@
         <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I62" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K62" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L62" t="n">
         <v>1.43</v>
@@ -8809,13 +8809,13 @@
         <v>4</v>
       </c>
       <c r="T62" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U62" t="n">
         <v>1.84</v>
       </c>
       <c r="V62" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W62" t="n">
         <v>1.16</v>
@@ -8830,7 +8830,7 @@
         <v>8.6</v>
       </c>
       <c r="AA62" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB62" t="n">
         <v>19</v>
@@ -8905,10 +8905,10 @@
         <v>3.05</v>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H63" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I63" t="n">
         <v>2.66</v>
@@ -8983,7 +8983,7 @@
         <v>19</v>
       </c>
       <c r="AG63" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH63" t="n">
         <v>19</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G64" t="n">
         <v>2.04</v>
@@ -9049,34 +9049,34 @@
         <v>6.6</v>
       </c>
       <c r="J64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K64" t="n">
         <v>6.2</v>
       </c>
       <c r="L64" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O64" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P64" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R64" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S64" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="T64" t="n">
         <v>1.01</v>
@@ -9190,13 +9190,13 @@
         <v>3.6</v>
       </c>
       <c r="L65" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M65" t="n">
         <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O65" t="n">
         <v>1.34</v>
@@ -9268,7 +9268,7 @@
         <v>46</v>
       </c>
       <c r="AL65" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM65" t="n">
         <v>100</v>
@@ -9310,19 +9310,19 @@
         <v>2.3</v>
       </c>
       <c r="G66" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>2.48</v>
       </c>
       <c r="I66" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="J66" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="K66" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9334,7 +9334,7 @@
         <v>1.74</v>
       </c>
       <c r="O66" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P66" t="n">
         <v>1.74</v>
@@ -9343,10 +9343,10 @@
         <v>1.93</v>
       </c>
       <c r="R66" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S66" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9355,10 +9355,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="W66" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9457,7 +9457,7 @@
         <v>5.4</v>
       </c>
       <c r="K67" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L67" t="n">
         <v>1.2</v>
@@ -9466,7 +9466,7 @@
         <v>1.02</v>
       </c>
       <c r="N67" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O67" t="n">
         <v>1.12</v>
@@ -9484,10 +9484,10 @@
         <v>1.93</v>
       </c>
       <c r="T67" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U67" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V67" t="n">
         <v>1.16</v>
@@ -9499,7 +9499,7 @@
         <v>44</v>
       </c>
       <c r="Y67" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="Z67" t="n">
         <v>75</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G68" t="n">
         <v>2.3</v>
       </c>
       <c r="H68" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I68" t="n">
         <v>5.2</v>
       </c>
       <c r="J68" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K68" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L68" t="n">
         <v>1.32</v>
@@ -9601,13 +9601,13 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O68" t="n">
         <v>1.28</v>
       </c>
       <c r="P68" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q68" t="n">
         <v>1.81</v>
@@ -9721,7 +9721,7 @@
         <v>1.83</v>
       </c>
       <c r="I69" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J69" t="n">
         <v>3.65</v>
@@ -9745,7 +9745,7 @@
         <v>1.91</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R69" t="n">
         <v>1.34</v>
@@ -9760,46 +9760,46 @@
         <v>1.87</v>
       </c>
       <c r="V69" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W69" t="n">
         <v>1.25</v>
       </c>
       <c r="X69" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Y69" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Z69" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AA69" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AB69" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AC69" t="n">
         <v>10.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AE69" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AF69" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG69" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AH69" t="n">
         <v>25</v>
       </c>
       <c r="AI69" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ69" t="n">
         <v>130</v>
@@ -10006,13 +10006,13 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O71" t="n">
         <v>1.14</v>
       </c>
       <c r="P71" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q71" t="n">
         <v>1.37</v>
@@ -10123,16 +10123,16 @@
         <v>1000</v>
       </c>
       <c r="H72" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I72" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J72" t="n">
-        <v>5.1</v>
+        <v>1.03</v>
       </c>
       <c r="K72" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10150,10 +10150,10 @@
         <v>1.8</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R72" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S72" t="n">
         <v>2.92</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="G73" t="n">
         <v>2.66</v>
       </c>
       <c r="H73" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I73" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J73" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="K73" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10300,7 +10300,7 @@
         <v>1.44</v>
       </c>
       <c r="V73" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W73" t="n">
         <v>1.6</v>
@@ -10312,7 +10312,7 @@
         <v>12.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA73" t="n">
         <v>1000</v>
@@ -10324,19 +10324,19 @@
         <v>10</v>
       </c>
       <c r="AD73" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE73" t="n">
         <v>1000</v>
       </c>
       <c r="AF73" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AG73" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH73" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AI73" t="n">
         <v>1000</v>
@@ -10390,7 +10390,7 @@
         <v>8.6</v>
       </c>
       <c r="G74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" t="n">
         <v>1.38</v>
@@ -10432,7 +10432,7 @@
         <v>1.84</v>
       </c>
       <c r="U74" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V74" t="n">
         <v>3.35</v>
@@ -10453,7 +10453,7 @@
         <v>980</v>
       </c>
       <c r="AB74" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AC74" t="n">
         <v>980</v>
@@ -10468,13 +10468,13 @@
         <v>130</v>
       </c>
       <c r="AG74" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH74" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI74" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ74" t="n">
         <v>1000</v>
@@ -10528,7 +10528,7 @@
         <v>1.55</v>
       </c>
       <c r="H75" t="n">
-        <v>1.09</v>
+        <v>2.88</v>
       </c>
       <c r="I75" t="n">
         <v>1000</v>
@@ -10546,13 +10546,13 @@
         <v>1.02</v>
       </c>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="O75" t="n">
         <v>1.11</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="Q75" t="n">
         <v>1.13</v>
@@ -10567,10 +10567,10 @@
         <v>1.5</v>
       </c>
       <c r="U75" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="W75" t="n">
         <v>2.8</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G76" t="n">
         <v>5.3</v>
       </c>
       <c r="H76" t="n">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="I76" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="J76" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K76" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10690,7 +10690,7 @@
         <v>1.78</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R76" t="n">
         <v>1.28</v>
@@ -10705,7 +10705,7 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="W76" t="n">
         <v>1.23</v>
@@ -10792,19 +10792,19 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G77" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>3.05</v>
       </c>
       <c r="I77" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K77" t="n">
         <v>1000</v>
@@ -10825,13 +10825,13 @@
         <v>1.74</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R77" t="n">
         <v>1.27</v>
       </c>
       <c r="S77" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T77" t="n">
         <v>1.01</v>
@@ -10840,10 +10840,10 @@
         <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W77" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -11071,7 +11071,7 @@
         <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J79" t="n">
         <v>4.2</v>
@@ -11086,16 +11086,16 @@
         <v>1.05</v>
       </c>
       <c r="N79" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O79" t="n">
         <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R79" t="n">
         <v>1.39</v>
@@ -11107,10 +11107,10 @@
         <v>1.68</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V79" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W79" t="n">
         <v>2.66</v>
@@ -11119,7 +11119,7 @@
         <v>23</v>
       </c>
       <c r="Y79" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z79" t="n">
         <v>60</v>
@@ -11134,7 +11134,7 @@
         <v>10.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE79" t="n">
         <v>110</v>
@@ -11146,7 +11146,7 @@
         <v>980</v>
       </c>
       <c r="AH79" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI79" t="n">
         <v>100</v>
@@ -11158,7 +11158,7 @@
         <v>980</v>
       </c>
       <c r="AL79" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM79" t="n">
         <v>130</v>
@@ -11167,7 +11167,7 @@
         <v>7.8</v>
       </c>
       <c r="AO79" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
@@ -11239,7 +11239,7 @@
         <v>2.92</v>
       </c>
       <c r="T80" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U80" t="n">
         <v>1.71</v>
@@ -11338,13 +11338,13 @@
         <v>4.6</v>
       </c>
       <c r="H81" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I81" t="n">
         <v>2.2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K81" t="n">
         <v>4.9</v>
@@ -11392,13 +11392,13 @@
         <v>980</v>
       </c>
       <c r="Z81" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA81" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AB81" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AC81" t="n">
         <v>980</v>
@@ -11407,19 +11407,19 @@
         <v>980</v>
       </c>
       <c r="AE81" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF81" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AG81" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AH81" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI81" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ81" t="n">
         <v>1000</v>
@@ -11617,7 +11617,7 @@
         <v>3.85</v>
       </c>
       <c r="K83" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L83" t="n">
         <v>1.39</v>
@@ -11635,7 +11635,7 @@
         <v>2.1</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R83" t="n">
         <v>1.43</v>
@@ -11902,16 +11902,16 @@
         <v>1.45</v>
       </c>
       <c r="P85" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.32</v>
+        <v>1.45</v>
       </c>
       <c r="R85" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S85" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="T85" t="n">
         <v>2.08</v>
@@ -11932,7 +11932,7 @@
         <v>18</v>
       </c>
       <c r="Z85" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AA85" t="n">
         <v>190</v>
@@ -12148,7 +12148,7 @@
         <v>2.92</v>
       </c>
       <c r="H87" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="I87" t="n">
         <v>3.6</v>
@@ -12157,7 +12157,7 @@
         <v>3.25</v>
       </c>
       <c r="K87" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12175,7 +12175,7 @@
         <v>1.77</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R87" t="n">
         <v>1.28</v>
@@ -12190,7 +12190,7 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W87" t="n">
         <v>1.52</v>
@@ -12295,13 +12295,13 @@
         <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M88" t="n">
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O88" t="n">
         <v>1.3</v>
@@ -12313,10 +12313,10 @@
         <v>1.9</v>
       </c>
       <c r="R88" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S88" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T88" t="n">
         <v>2.16</v>
@@ -12331,7 +12331,7 @@
         <v>3.15</v>
       </c>
       <c r="X88" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y88" t="n">
         <v>26</v>
@@ -12340,7 +12340,7 @@
         <v>75</v>
       </c>
       <c r="AA88" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB88" t="n">
         <v>7.6</v>
@@ -12364,7 +12364,7 @@
         <v>27</v>
       </c>
       <c r="AI88" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ88" t="n">
         <v>12</v>
@@ -12436,7 +12436,7 @@
         <v>1.09</v>
       </c>
       <c r="N89" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O89" t="n">
         <v>1.4</v>
@@ -12454,10 +12454,10 @@
         <v>4.1</v>
       </c>
       <c r="T89" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U89" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V89" t="n">
         <v>1.47</v>
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G90" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H90" t="n">
         <v>2.88</v>
@@ -12682,22 +12682,22 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G91" t="n">
         <v>4.2</v>
       </c>
       <c r="H91" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I91" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J91" t="n">
         <v>3.05</v>
       </c>
       <c r="K91" t="n">
-        <v>6.4</v>
+        <v>110</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
@@ -12730,7 +12730,7 @@
         <v>1.01</v>
       </c>
       <c r="V91" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W91" t="n">
         <v>1.31</v>
@@ -12820,10 +12820,10 @@
         <v>4.7</v>
       </c>
       <c r="G92" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H92" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I92" t="n">
         <v>1.76</v>
@@ -12859,7 +12859,7 @@
         <v>2.22</v>
       </c>
       <c r="T92" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="U92" t="n">
         <v>2.48</v>
@@ -12880,25 +12880,25 @@
         <v>16.5</v>
       </c>
       <c r="AA92" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AB92" t="n">
         <v>32</v>
       </c>
       <c r="AC92" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AD92" t="n">
         <v>13</v>
       </c>
       <c r="AE92" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AF92" t="n">
         <v>55</v>
       </c>
       <c r="AG92" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH92" t="n">
         <v>21</v>
@@ -12919,7 +12919,7 @@
         <v>65</v>
       </c>
       <c r="AN92" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO92" t="n">
         <v>7.8</v>
@@ -12970,7 +12970,7 @@
         <v>9.6</v>
       </c>
       <c r="L93" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M93" t="n">
         <v>1.01</v>
@@ -12988,7 +12988,7 @@
         <v>1.49</v>
       </c>
       <c r="R93" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S93" t="n">
         <v>2.34</v>
@@ -13006,7 +13006,7 @@
         <v>6</v>
       </c>
       <c r="X93" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Y93" t="n">
         <v>65</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G94" t="n">
         <v>1.7</v>
       </c>
-      <c r="G94" t="n">
-        <v>1.71</v>
-      </c>
       <c r="H94" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I94" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J94" t="n">
         <v>3.8</v>
       </c>
       <c r="K94" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L94" t="n">
         <v>1.48</v>
@@ -13135,10 +13135,10 @@
         <v>1.77</v>
       </c>
       <c r="V94" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W94" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X94" t="n">
         <v>11</v>
@@ -13174,7 +13174,7 @@
         <v>27</v>
       </c>
       <c r="AI94" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ94" t="n">
         <v>16</v>
@@ -13186,7 +13186,7 @@
         <v>50</v>
       </c>
       <c r="AM94" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN94" t="n">
         <v>13.5</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="G95" t="n">
         <v>1.45</v>
@@ -13237,7 +13237,7 @@
         <v>4.5</v>
       </c>
       <c r="K95" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13246,13 +13246,13 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O95" t="n">
         <v>1.24</v>
       </c>
       <c r="P95" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q95" t="n">
         <v>1.65</v>
@@ -13360,19 +13360,19 @@
         <v>1.04</v>
       </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H96" t="n">
         <v>1.04</v>
       </c>
       <c r="I96" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J96" t="n">
         <v>3.05</v>
       </c>
       <c r="K96" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13495,13 +13495,13 @@
         <v>2.44</v>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H97" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I97" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J97" t="n">
         <v>3.75</v>
@@ -13540,10 +13540,10 @@
         <v>1.01</v>
       </c>
       <c r="V97" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W97" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X97" t="n">
         <v>1000</v>
@@ -13630,7 +13630,7 @@
         <v>1.19</v>
       </c>
       <c r="G98" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H98" t="n">
         <v>12</v>
@@ -13639,7 +13639,7 @@
         <v>18</v>
       </c>
       <c r="J98" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K98" t="n">
         <v>10.5</v>
@@ -13651,16 +13651,16 @@
         <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="O98" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P98" t="n">
         <v>4.9</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R98" t="n">
         <v>2.56</v>
@@ -13678,7 +13678,7 @@
         <v>1.06</v>
       </c>
       <c r="W98" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X98" t="n">
         <v>110</v>
@@ -13723,10 +13723,10 @@
         <v>14.5</v>
       </c>
       <c r="AL98" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AM98" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN98" t="n">
         <v>2.46</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G99" t="n">
         <v>2.86</v>
       </c>
       <c r="H99" t="n">
-        <v>1.09</v>
+        <v>2.5</v>
       </c>
       <c r="I99" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="J99" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K99" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13804,13 +13804,13 @@
         <v>2.68</v>
       </c>
       <c r="T99" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U99" t="n">
         <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W99" t="n">
         <v>1.53</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="G101" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H101" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I101" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J101" t="n">
-        <v>2.4</v>
+        <v>1.09</v>
       </c>
       <c r="K101" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="L101" t="n">
         <v>1.01</v>
@@ -14056,13 +14056,13 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="O101" t="n">
         <v>1.02</v>
       </c>
       <c r="P101" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q101" t="n">
         <v>2.28</v>
@@ -14080,10 +14080,10 @@
         <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W101" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X101" t="n">
         <v>12</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="G102" t="n">
         <v>4.9</v>
@@ -14179,7 +14179,7 @@
         <v>2.7</v>
       </c>
       <c r="J102" t="n">
-        <v>2.34</v>
+        <v>1.09</v>
       </c>
       <c r="K102" t="n">
         <v>1000</v>
@@ -14302,19 +14302,19 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="G103" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H103" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I103" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J103" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K103" t="n">
         <v>1000</v>
@@ -14326,13 +14326,13 @@
         <v>1.04</v>
       </c>
       <c r="N103" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="O103" t="n">
         <v>1.2</v>
       </c>
       <c r="P103" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q103" t="n">
         <v>1.59</v>
@@ -14353,7 +14353,7 @@
         <v>2.16</v>
       </c>
       <c r="W103" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X103" t="n">
         <v>1000</v>
@@ -14437,19 +14437,19 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="H104" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I104" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J104" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K104" t="n">
         <v>3.8</v>
@@ -14458,19 +14458,19 @@
         <v>1.01</v>
       </c>
       <c r="M104" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="O104" t="n">
         <v>1.34</v>
       </c>
       <c r="P104" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R104" t="n">
         <v>1.26</v>
@@ -14479,70 +14479,70 @@
         <v>3.25</v>
       </c>
       <c r="T104" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U104" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W104" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="X104" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y104" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z104" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA104" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB104" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC104" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD104" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE104" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AF104" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG104" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH104" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI104" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ104" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK104" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL104" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM104" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN104" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AO104" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105">
@@ -14575,7 +14575,7 @@
         <v>1.8</v>
       </c>
       <c r="G105" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H105" t="n">
         <v>3.55</v>
@@ -14587,7 +14587,7 @@
         <v>3.25</v>
       </c>
       <c r="K105" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="L105" t="n">
         <v>1.28</v>
@@ -14623,7 +14623,7 @@
         <v>1.22</v>
       </c>
       <c r="W105" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14716,13 +14716,13 @@
         <v>3.05</v>
       </c>
       <c r="I106" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="J106" t="n">
         <v>3.4</v>
       </c>
       <c r="K106" t="n">
-        <v>6.6</v>
+        <v>110</v>
       </c>
       <c r="L106" t="n">
         <v>1.01</v>
@@ -14755,7 +14755,7 @@
         <v>1.01</v>
       </c>
       <c r="V106" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W106" t="n">
         <v>1.73</v>
@@ -14857,7 +14857,7 @@
         <v>2.5</v>
       </c>
       <c r="K107" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="L107" t="n">
         <v>1.01</v>
@@ -14980,19 +14980,19 @@
         <v>1.54</v>
       </c>
       <c r="G108" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H108" t="n">
         <v>5.2</v>
       </c>
       <c r="I108" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J108" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K108" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="L108" t="n">
         <v>1.44</v>
@@ -15001,7 +15001,7 @@
         <v>1.07</v>
       </c>
       <c r="N108" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="O108" t="n">
         <v>1.34</v>
@@ -15028,7 +15028,7 @@
         <v>1.12</v>
       </c>
       <c r="W108" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X108" t="n">
         <v>1000</v>
@@ -15115,19 +15115,19 @@
         <v>1.72</v>
       </c>
       <c r="G109" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I109" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J109" t="n">
         <v>3.8</v>
       </c>
       <c r="K109" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109" t="n">
         <v>1.42</v>
@@ -15154,16 +15154,16 @@
         <v>3</v>
       </c>
       <c r="T109" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U109" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V109" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W109" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X109" t="n">
         <v>1000</v>
@@ -15208,7 +15208,7 @@
         <v>27</v>
       </c>
       <c r="AL109" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM109" t="n">
         <v>1000</v>
@@ -15262,7 +15262,7 @@
         <v>4.3</v>
       </c>
       <c r="K110" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L110" t="n">
         <v>1.41</v>
@@ -15271,7 +15271,7 @@
         <v>1.01</v>
       </c>
       <c r="N110" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="O110" t="n">
         <v>1.34</v>
@@ -15550,7 +15550,7 @@
         <v>1.8</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R112" t="n">
         <v>1.23</v>
@@ -15787,22 +15787,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="G114" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H114" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="I114" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="J114" t="n">
         <v>3.2</v>
       </c>
       <c r="K114" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L114" t="n">
         <v>1.45</v>
@@ -15811,13 +15811,13 @@
         <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O114" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P114" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q114" t="n">
         <v>2.16</v>
@@ -15829,16 +15829,16 @@
         <v>3.5</v>
       </c>
       <c r="T114" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U114" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V114" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W114" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X114" t="n">
         <v>17.5</v>
@@ -15856,7 +15856,7 @@
         <v>15</v>
       </c>
       <c r="AC114" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD114" t="n">
         <v>18.5</v>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G115" t="n">
         <v>1.52</v>
@@ -15943,7 +15943,7 @@
         <v>1.44</v>
       </c>
       <c r="M115" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N115" t="n">
         <v>3.2</v>
@@ -15967,10 +15967,10 @@
         <v>2.3</v>
       </c>
       <c r="U115" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="V115" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W115" t="n">
         <v>2.92</v>
@@ -15979,7 +15979,7 @@
         <v>13</v>
       </c>
       <c r="Y115" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Z115" t="n">
         <v>120</v>
@@ -15994,7 +15994,7 @@
         <v>11</v>
       </c>
       <c r="AD115" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AE115" t="n">
         <v>290</v>
@@ -16018,7 +16018,7 @@
         <v>20</v>
       </c>
       <c r="AL115" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM115" t="n">
         <v>320</v>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G117" t="n">
         <v>1.39</v>
@@ -16201,7 +16201,7 @@
         <v>11.5</v>
       </c>
       <c r="I117" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J117" t="n">
         <v>5</v>
@@ -16222,34 +16222,34 @@
         <v>1.41</v>
       </c>
       <c r="P117" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="Q117" t="n">
         <v>2.18</v>
       </c>
       <c r="R117" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S117" t="n">
         <v>4.1</v>
       </c>
       <c r="T117" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="U117" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="V117" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W117" t="n">
         <v>3.55</v>
       </c>
       <c r="X117" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Y117" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Z117" t="n">
         <v>140</v>
@@ -16276,7 +16276,7 @@
         <v>13</v>
       </c>
       <c r="AH117" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI117" t="n">
         <v>340</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G118" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H118" t="n">
         <v>2.26</v>
       </c>
       <c r="I118" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="J118" t="n">
         <v>2.9</v>
       </c>
       <c r="K118" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L118" t="n">
         <v>1.01</v>
@@ -16351,22 +16351,22 @@
         <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="O118" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P118" t="n">
         <v>1.25</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.02</v>
+        <v>1.59</v>
       </c>
       <c r="R118" t="n">
         <v>1.17</v>
       </c>
       <c r="S118" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T118" t="n">
         <v>1.01</v>
@@ -16375,13 +16375,13 @@
         <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W118" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X118" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y118" t="n">
         <v>1000</v>
@@ -16462,22 +16462,22 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G119" t="n">
         <v>1.56</v>
       </c>
       <c r="H119" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="I119" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J119" t="n">
         <v>3.85</v>
       </c>
       <c r="K119" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q119" t="n">
         <v>2.1</v>
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G120" t="n">
         <v>4.6</v>
@@ -16606,7 +16606,7 @@
         <v>2.14</v>
       </c>
       <c r="I120" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J120" t="n">
         <v>3.2</v>
@@ -16618,13 +16618,13 @@
         <v>1.01</v>
       </c>
       <c r="M120" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N120" t="n">
-        <v>1.58</v>
+        <v>2.68</v>
       </c>
       <c r="O120" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="P120" t="n">
         <v>1.58</v>
@@ -16633,34 +16633,34 @@
         <v>2.66</v>
       </c>
       <c r="R120" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S120" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T120" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U120" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V120" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W120" t="n">
         <v>1.28</v>
       </c>
       <c r="X120" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Y120" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Z120" t="n">
         <v>980</v>
       </c>
       <c r="AA120" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB120" t="n">
         <v>980</v>
@@ -16672,37 +16672,37 @@
         <v>980</v>
       </c>
       <c r="AE120" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF120" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG120" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH120" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI120" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ120" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK120" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL120" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM120" t="n">
         <v>1000</v>
       </c>
       <c r="AN120" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO120" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121">
@@ -16732,13 +16732,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G121" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="I121" t="n">
         <v>3.9</v>
@@ -16747,7 +16747,7 @@
         <v>3.15</v>
       </c>
       <c r="K121" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L121" t="n">
         <v>1.46</v>
@@ -16780,10 +16780,10 @@
         <v>1.01</v>
       </c>
       <c r="V121" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W121" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X121" t="n">
         <v>1000</v>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G122" t="n">
         <v>1.71</v>
@@ -16876,7 +16876,7 @@
         <v>5.5</v>
       </c>
       <c r="I122" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J122" t="n">
         <v>4.2</v>
@@ -16903,7 +16903,7 @@
         <v>1.73</v>
       </c>
       <c r="R122" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S122" t="n">
         <v>2.84</v>
@@ -17017,7 +17017,7 @@
         <v>3.55</v>
       </c>
       <c r="K123" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L123" t="n">
         <v>1.39</v>
@@ -17035,7 +17035,7 @@
         <v>2.02</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R123" t="n">
         <v>1.4</v>
@@ -17044,7 +17044,7 @@
         <v>3.35</v>
       </c>
       <c r="T123" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U123" t="n">
         <v>2.22</v>
@@ -17056,7 +17056,7 @@
         <v>1.92</v>
       </c>
       <c r="X123" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y123" t="n">
         <v>16</v>
@@ -17275,16 +17275,16 @@
         <v>2.26</v>
       </c>
       <c r="G125" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H125" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I125" t="n">
         <v>4.3</v>
       </c>
       <c r="J125" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K125" t="n">
         <v>3.15</v>
@@ -17323,7 +17323,7 @@
         <v>1.3</v>
       </c>
       <c r="W125" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X125" t="n">
         <v>9</v>
@@ -17350,10 +17350,10 @@
         <v>100</v>
       </c>
       <c r="AF125" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG125" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH125" t="n">
         <v>38</v>
@@ -17416,13 +17416,13 @@
         <v>1.09</v>
       </c>
       <c r="I126" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J126" t="n">
         <v>3.5</v>
       </c>
       <c r="K126" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="L126" t="n">
         <v>1.01</v>
@@ -17431,16 +17431,16 @@
         <v>1.01</v>
       </c>
       <c r="N126" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O126" t="n">
         <v>1.28</v>
       </c>
       <c r="P126" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R126" t="n">
         <v>1.34</v>
@@ -17455,7 +17455,7 @@
         <v>1.01</v>
       </c>
       <c r="V126" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W126" t="n">
         <v>1.28</v>
@@ -17557,7 +17557,7 @@
         <v>2.4</v>
       </c>
       <c r="K127" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="L127" t="n">
         <v>1.01</v>
@@ -17566,13 +17566,13 @@
         <v>1.01</v>
       </c>
       <c r="N127" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O127" t="n">
         <v>1.36</v>
       </c>
       <c r="P127" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q127" t="n">
         <v>1.91</v>
@@ -17593,7 +17593,7 @@
         <v>1.69</v>
       </c>
       <c r="W127" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="X127" t="n">
         <v>1000</v>
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G128" t="n">
         <v>2.18</v>
@@ -17686,10 +17686,10 @@
         <v>3.9</v>
       </c>
       <c r="I128" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J128" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K128" t="n">
         <v>3.9</v>
@@ -17719,16 +17719,16 @@
         <v>3.55</v>
       </c>
       <c r="T128" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U128" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V128" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W128" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X128" t="n">
         <v>16</v>
@@ -17827,7 +17827,7 @@
         <v>2.4</v>
       </c>
       <c r="K129" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="L129" t="n">
         <v>1.01</v>
@@ -17971,13 +17971,13 @@
         <v>1.07</v>
       </c>
       <c r="N130" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="O130" t="n">
         <v>1.34</v>
       </c>
       <c r="P130" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="Q130" t="n">
         <v>1.34</v>
@@ -18082,112 +18082,112 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G131" t="n">
         <v>2.58</v>
       </c>
       <c r="H131" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I131" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J131" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="K131" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P131" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S131" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U131" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V131" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="132">
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G132" t="n">
         <v>1.41</v>
@@ -18259,10 +18259,10 @@
         <v>2.68</v>
       </c>
       <c r="T132" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U132" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="V132" t="n">
         <v>1.06</v>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G133" t="n">
         <v>1.83</v>
@@ -18370,16 +18370,16 @@
         <v>3.7</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P133" t="n">
         <v>1.55</v>
@@ -18388,76 +18388,76 @@
         <v>2.58</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S133" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U133" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V133" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W133" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X133" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y133" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z133" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA133" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB133" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC133" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD133" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE133" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF133" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG133" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH133" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI133" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ133" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK133" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL133" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM133" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN133" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO133" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="134">
@@ -18499,100 +18499,100 @@
         <v>1000</v>
       </c>
       <c r="J134" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K134" t="n">
         <v>1000</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P134" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="135">
@@ -18640,10 +18640,10 @@
         <v>3.7</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N135" t="n">
         <v>2.9</v>
@@ -18658,76 +18658,76 @@
         <v>2.3</v>
       </c>
       <c r="R135" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S135" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U135" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V135" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W135" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X135" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y135" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z135" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA135" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AB135" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC135" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD135" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE135" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF135" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG135" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH135" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI135" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ135" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK135" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL135" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM135" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN135" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO135" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136">
@@ -18757,34 +18757,34 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.63</v>
+        <v>1.09</v>
       </c>
       <c r="G136" t="n">
         <v>2.1</v>
       </c>
       <c r="H136" t="n">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="I136" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J136" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="K136" t="n">
         <v>1000</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P136" t="n">
         <v>2.28</v>
@@ -18793,76 +18793,76 @@
         <v>1.42</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S136" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U136" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V136" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W136" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="137">
@@ -18907,7 +18907,7 @@
         <v>3.05</v>
       </c>
       <c r="K137" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="L137" t="n">
         <v>1.01</v>
@@ -18925,7 +18925,7 @@
         <v>1.9</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R137" t="n">
         <v>1.32</v>
@@ -18940,10 +18940,10 @@
         <v>1.76</v>
       </c>
       <c r="V137" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W137" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X137" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-23.xlsx
@@ -676,13 +676,13 @@
         <v>1.81</v>
       </c>
       <c r="I2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -706,7 +706,7 @@
         <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.98</v>
@@ -721,10 +721,10 @@
         <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
@@ -940,19 +940,19 @@
         <v>1.48</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H4" t="n">
         <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -961,7 +961,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
@@ -976,7 +976,7 @@
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>1.98</v>
@@ -988,7 +988,7 @@
         <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
         <v>2.12</v>
@@ -1081,31 +1081,31 @@
         <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
@@ -1120,7 +1120,7 @@
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
         <v>1.89</v>
@@ -1132,46 +1132,46 @@
         <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
         <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
         <v>20</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
         <v>15.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
         <v>26</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
         <v>16</v>
@@ -1198,55 +1198,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kitakyushu</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>FC Gifu</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.6</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
         <v>1.77</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
         <v>8</v>
@@ -1366,16 +1366,16 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1390,7 +1390,7 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
         <v>2.28</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G8" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1528,7 +1528,7 @@
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>1.26</v>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1639,19 +1639,19 @@
         <v>2.18</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>2.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1663,7 +1663,7 @@
         <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.31</v>
@@ -1771,22 +1771,22 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.76</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.78</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
         <v>1.51</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
@@ -1894,7 +1894,7 @@
         <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>3.6</v>
@@ -1903,31 +1903,31 @@
         <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>1.45</v>
@@ -1981,7 +1981,7 @@
         <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
         <v>32</v>
@@ -2008,55 +2008,55 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Kitakyushu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Gifu</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K12" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2065,10 +2065,10 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.37</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.53</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>3.75</v>
@@ -2167,7 +2167,7 @@
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2176,34 +2176,34 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
@@ -2230,7 +2230,7 @@
         <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
         <v>13.5</v>
@@ -2242,22 +2242,22 @@
         <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2290,22 +2290,22 @@
         <v>3.9</v>
       </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
         <v>1.88</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2335,7 +2335,7 @@
         <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
         <v>1.22</v>
@@ -2449,7 +2449,7 @@
         <v>2.82</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
         <v>1.85</v>
@@ -2569,7 +2569,7 @@
         <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K16" t="n">
         <v>4.7</v>
@@ -2581,7 +2581,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="O16" t="n">
         <v>1.04</v>
@@ -2701,10 +2701,10 @@
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="K17" t="n">
         <v>5.3</v>
@@ -2722,16 +2722,16 @@
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
         <v>1.81</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="T17" t="n">
         <v>1.04</v>
@@ -2740,7 +2740,7 @@
         <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
         <v>1.7</v>
@@ -2830,19 +2830,19 @@
         <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
         <v>4.7</v>
@@ -2992,13 +2992,13 @@
         <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q19" t="n">
         <v>1.41</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S19" t="n">
         <v>2.04</v>
@@ -3010,10 +3010,10 @@
         <v>3.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X19" t="n">
         <v>38</v>
@@ -3022,7 +3022,7 @@
         <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
         <v>80</v>
@@ -3064,16 +3064,16 @@
         <v>48</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Japanese J League 2</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,67 +3088,67 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Lee Man Warriors</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>North District</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>1.54</v>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="I20" t="n">
-        <v>2.02</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>2.18</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Japanese J League 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.42</v>
+        <v>3.85</v>
       </c>
       <c r="G21" t="n">
-        <v>1.52</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>7.2</v>
+        <v>1.71</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5</v>
+        <v>2.02</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.12</v>
+        <v>1.96</v>
       </c>
       <c r="W21" t="n">
-        <v>2.92</v>
+        <v>1.24</v>
       </c>
       <c r="X21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.35</v>
+        <v>1.42</v>
       </c>
       <c r="G22" t="n">
-        <v>4.7</v>
+        <v>1.52</v>
       </c>
       <c r="H22" t="n">
-        <v>1.56</v>
+        <v>7.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.56</v>
+        <v>10.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>1.27</v>
+        <v>2.92</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.44</v>
+        <v>3.35</v>
       </c>
       <c r="G23" t="n">
-        <v>2.72</v>
+        <v>4.7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="W23" t="n">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>FC Van Yerevan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="S24" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Znicz Pruszkow</t>
+          <t>Shamakhi FK</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="G25" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,22 +3796,22 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="R25" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>2.56</v>
+        <v>1.79</v>
       </c>
       <c r="T25" t="n">
         <v>1.04</v>
@@ -3820,10 +3820,10 @@
         <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.94</v>
+        <v>2.52</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Van Yerevan</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="G26" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="W26" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Shamakhi FK</t>
+          <t>Znicz Pruszkow</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.37</v>
+        <v>1.77</v>
       </c>
       <c r="G27" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="H27" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="S27" t="n">
-        <v>1.79</v>
+        <v>2.56</v>
       </c>
       <c r="T27" t="n">
         <v>1.04</v>
@@ -4090,10 +4090,10 @@
         <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>2.52</v>
+        <v>1.94</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="G28" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>2.36</v>
       </c>
       <c r="O28" t="n">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
       <c r="R28" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="U28" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="X28" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA28" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="n">
         <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>960</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="H29" t="n">
-        <v>2.26</v>
+        <v>2.82</v>
       </c>
       <c r="I29" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.64</v>
+        <v>1.86</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="R29" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="U29" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="V29" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X29" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN29" t="n">
         <v>27</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>970</v>
-      </c>
       <c r="AO29" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
       <c r="G30" t="n">
-        <v>1.94</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>2.26</v>
       </c>
       <c r="I30" t="n">
-        <v>4.7</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="S30" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T30" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="U30" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="W30" t="n">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
       <c r="X30" t="n">
         <v>27</v>
       </c>
       <c r="Y30" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Z30" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE30" t="n">
         <v>22</v>
       </c>
-      <c r="AE30" t="n">
-        <v>60</v>
-      </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AN30" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AO30" t="n">
-        <v>46</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.44</v>
+        <v>1.71</v>
       </c>
       <c r="G31" t="n">
-        <v>2.78</v>
+        <v>1.98</v>
       </c>
       <c r="H31" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="R31" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="S31" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U31" t="n">
         <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G32" t="n">
         <v>2.38</v>
       </c>
       <c r="H32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,55 +4843,55 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CS Afumati</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="H33" t="n">
-        <v>1.09</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.29</v>
+        <v>2.52</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="S33" t="n">
-        <v>1.36</v>
+        <v>2.64</v>
       </c>
       <c r="T33" t="n">
         <v>1.04</v>
@@ -4900,10 +4900,10 @@
         <v>1.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>CS Afumati</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mladost Lucani</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.18</v>
+        <v>1000</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>1.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L34" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>3.4</v>
+        <v>1.29</v>
       </c>
       <c r="O34" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.82</v>
+        <v>1.28</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="R34" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="S34" t="n">
-        <v>3.45</v>
+        <v>1.37</v>
       </c>
       <c r="T34" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G35" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K35" t="n">
         <v>4.1</v>
@@ -5155,13 +5155,13 @@
         <v>2.08</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R35" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S35" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T35" t="n">
         <v>1.66</v>
@@ -5170,22 +5170,22 @@
         <v>2.26</v>
       </c>
       <c r="V35" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="n">
         <v>14</v>
@@ -5194,16 +5194,16 @@
         <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF35" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
         <v>20</v>
@@ -5212,22 +5212,22 @@
         <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
         <v>95</v>
       </c>
       <c r="AN35" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO35" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G36" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I36" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="J36" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="K36" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,19 +5281,19 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R36" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S36" t="n">
         <v>2.74</v>
@@ -5302,10 +5302,10 @@
         <v>2.02</v>
       </c>
       <c r="U36" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V36" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="W36" t="n">
         <v>1.07</v>
@@ -5320,7 +5320,7 @@
         <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AB36" t="n">
         <v>980</v>
@@ -5335,7 +5335,7 @@
         <v>980</v>
       </c>
       <c r="AF36" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AG36" t="n">
         <v>980</v>
@@ -5353,7 +5353,7 @@
         <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
@@ -5425,7 +5425,7 @@
         <v>1.91</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R37" t="n">
         <v>1.37</v>
@@ -5434,7 +5434,7 @@
         <v>2.64</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="U37" t="n">
         <v>2.32</v>
@@ -5536,7 +5536,7 @@
         <v>2.76</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J38" t="n">
         <v>3.9</v>
@@ -5581,7 +5581,7 @@
         <v>1.64</v>
       </c>
       <c r="X38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>16.5</v>
@@ -5680,34 +5680,34 @@
         <v>4.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
         <v>2.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R39" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S39" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T39" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U39" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V39" t="n">
         <v>1.46</v>
@@ -5728,7 +5728,7 @@
         <v>50</v>
       </c>
       <c r="AB39" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC39" t="n">
         <v>9.199999999999999</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G41" t="n">
         <v>1.95</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
         <v>4.7</v>
@@ -5971,7 +5971,7 @@
         <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T41" t="n">
         <v>1.63</v>
@@ -6007,7 +6007,7 @@
         <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
         <v>970</v>
@@ -6070,7 +6070,7 @@
         <v>1.75</v>
       </c>
       <c r="G42" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H42" t="n">
         <v>4.6</v>
@@ -6100,10 +6100,10 @@
         <v>2.14</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R42" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S42" t="n">
         <v>2.84</v>
@@ -6202,118 +6202,118 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,55 +6328,55 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Wisla Krakow</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="G44" t="n">
-        <v>3.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>2.58</v>
+        <v>1.47</v>
       </c>
       <c r="I44" t="n">
-        <v>2.92</v>
+        <v>1.76</v>
       </c>
       <c r="J44" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.24</v>
+        <v>1.53</v>
       </c>
       <c r="R44" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="S44" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="T44" t="n">
         <v>1.04</v>
@@ -6385,10 +6385,10 @@
         <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="W44" t="n">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Norwegian Eliteserien</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Wisla Krakow</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5.3</v>
+        <v>2.38</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>2.56</v>
       </c>
       <c r="H45" t="n">
-        <v>1.47</v>
+        <v>2.74</v>
       </c>
       <c r="I45" t="n">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K45" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,34 +6496,34 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>2.42</v>
+        <v>1.1</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R45" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="S45" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="T45" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="U45" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="V45" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="W45" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6598,31 +6598,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.38</v>
+        <v>1.37</v>
       </c>
       <c r="G46" t="n">
-        <v>2.54</v>
+        <v>1.43</v>
       </c>
       <c r="H46" t="n">
-        <v>2.74</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="K46" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,34 +6631,34 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V46" t="n">
         <v>1.1</v>
       </c>
-      <c r="O46" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W46" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Norwegian Eliteserien</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,67 +6733,67 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G47" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="I47" t="n">
-        <v>11</v>
+        <v>870</v>
       </c>
       <c r="J47" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="K47" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.84</v>
+        <v>1.56</v>
       </c>
       <c r="O47" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>2.84</v>
+        <v>1.56</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.66</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="T47" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="U47" t="n">
         <v>1.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W47" t="n">
-        <v>3.3</v>
+        <v>2.44</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6868,121 +6868,121 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.39</v>
+        <v>2.68</v>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>3.05</v>
       </c>
       <c r="H48" t="n">
-        <v>6.8</v>
+        <v>2.94</v>
       </c>
       <c r="I48" t="n">
-        <v>870</v>
+        <v>3.4</v>
       </c>
       <c r="J48" t="n">
-        <v>3.45</v>
+        <v>2.82</v>
       </c>
       <c r="K48" t="n">
-        <v>7.6</v>
+        <v>3.25</v>
       </c>
       <c r="L48" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N48" t="n">
-        <v>1.56</v>
+        <v>2.4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P48" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="R48" t="n">
         <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="T48" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="U48" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="V48" t="n">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="W48" t="n">
-        <v>2.44</v>
+        <v>1.48</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -7003,121 +7003,121 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="G49" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="I49" t="n">
         <v>3.4</v>
       </c>
       <c r="J49" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="K49" t="n">
-        <v>3.25</v>
+        <v>500</v>
       </c>
       <c r="L49" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M49" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>2.42</v>
+        <v>1.86</v>
       </c>
       <c r="O49" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="P49" t="n">
         <v>1.48</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="R49" t="n">
         <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>5.7</v>
+        <v>2.28</v>
       </c>
       <c r="T49" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="V49" t="n">
         <v>1.42</v>
       </c>
       <c r="W49" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="X49" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7138,55 +7138,55 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H50" t="n">
         <v>2.56</v>
       </c>
       <c r="I50" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="J50" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="K50" t="n">
-        <v>500</v>
+        <v>3.45</v>
       </c>
       <c r="L50" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="O50" t="n">
         <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R50" t="n">
         <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
         <v>1.04</v>
@@ -7195,7 +7195,7 @@
         <v>1.04</v>
       </c>
       <c r="V50" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="W50" t="n">
         <v>1.43</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,121 +7273,121 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>SC Telstar</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.22</v>
+        <v>3.4</v>
       </c>
       <c r="G51" t="n">
-        <v>2.92</v>
+        <v>3.75</v>
       </c>
       <c r="H51" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="I51" t="n">
-        <v>4.8</v>
+        <v>2.24</v>
       </c>
       <c r="J51" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="K51" t="n">
-        <v>500</v>
+        <v>4.1</v>
       </c>
       <c r="L51" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>1.71</v>
+        <v>4.5</v>
       </c>
       <c r="O51" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P51" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="R51" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="S51" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="T51" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U51" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V51" t="n">
-        <v>1.26</v>
+        <v>1.8</v>
       </c>
       <c r="W51" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="52">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.4</v>
+        <v>1.41</v>
       </c>
       <c r="G52" t="n">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="H52" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="I52" t="n">
-        <v>2.24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="P52" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="n">
-        <v>2.78</v>
+        <v>2.02</v>
       </c>
       <c r="T52" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U52" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V52" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="W52" t="n">
-        <v>1.37</v>
+        <v>3.15</v>
       </c>
       <c r="X52" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH52" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,67 +7543,67 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Imisli FK</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="G53" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="H53" t="n">
         <v>7.2</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J53" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M53" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>7</v>
+        <v>1.81</v>
       </c>
       <c r="O53" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="P53" t="n">
-        <v>3.1</v>
+        <v>1.81</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="R53" t="n">
-        <v>1.87</v>
+        <v>1.23</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="T53" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="U53" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="V53" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W53" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7633,7 +7633,7 @@
         <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
         <v>1000</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,121 +7678,121 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Imisli FK</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="G54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K54" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R54" t="n">
         <v>1.57</v>
       </c>
-      <c r="H54" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K54" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.23</v>
-      </c>
       <c r="S54" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="T54" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U54" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V54" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W54" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -7813,127 +7813,127 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WSG Wattens</t>
+          <t>LASK Linz</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="G55" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="H55" t="n">
-        <v>6.6</v>
+        <v>3.65</v>
       </c>
       <c r="I55" t="n">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="J55" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P55" t="n">
-        <v>2.42</v>
+        <v>1.97</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="R55" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="S55" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="T55" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="U55" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V55" t="n">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="W55" t="n">
-        <v>2.84</v>
+        <v>1.81</v>
       </c>
       <c r="X55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z55" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA55" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI55" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,67 +7948,67 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LASK Linz</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="G56" t="n">
-        <v>2.24</v>
+        <v>2.92</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>2.92</v>
       </c>
       <c r="I56" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J56" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="K56" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M56" t="n">
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>1.71</v>
       </c>
       <c r="O56" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P56" t="n">
-        <v>1.95</v>
+        <v>1.42</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.71</v>
+        <v>2.4</v>
       </c>
       <c r="R56" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="S56" t="n">
-        <v>2.84</v>
+        <v>2.42</v>
       </c>
       <c r="T56" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="U56" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V56" t="n">
         <v>1.26</v>
       </c>
       <c r="W56" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,67 +8218,67 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>AC Horsens</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hillerod Fodbold</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="G58" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="H58" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J58" t="n">
         <v>3.85</v>
       </c>
-      <c r="I58" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K58" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="L58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R58" t="n">
         <v>1.28</v>
       </c>
-      <c r="M58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S58" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="T58" t="n">
         <v>1.01</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V58" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="W58" t="n">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8353,127 +8353,127 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="G59" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H59" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="I59" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="J59" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K59" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L59" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N59" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="O59" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P59" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R59" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S59" t="n">
         <v>4.2</v>
       </c>
       <c r="T59" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U59" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="W59" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X59" t="n">
         <v>11</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA59" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE59" t="n">
         <v>38</v>
       </c>
-      <c r="AB59" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>30</v>
-      </c>
       <c r="AF59" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AG59" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH59" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI59" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ59" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK59" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL59" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM59" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN59" t="n">
         <v>40</v>
       </c>
       <c r="AO59" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,127 +8488,127 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.85</v>
+        <v>1.66</v>
       </c>
       <c r="G60" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K60" t="n">
         <v>3.95</v>
       </c>
-      <c r="H60" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q60" t="n">
         <v>2.2</v>
       </c>
-      <c r="J60" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="n">
         <v>2.06</v>
       </c>
-      <c r="R60" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S60" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U60" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="V60" t="n">
-        <v>1.83</v>
+        <v>1.16</v>
       </c>
       <c r="W60" t="n">
-        <v>1.34</v>
+        <v>2.34</v>
       </c>
       <c r="X60" t="n">
         <v>14</v>
       </c>
       <c r="Y60" t="n">
-        <v>9.4</v>
+        <v>19</v>
       </c>
       <c r="Z60" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AA60" t="n">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="AB60" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC60" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD60" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG60" t="n">
         <v>11</v>
       </c>
-      <c r="AE60" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF60" t="n">
+      <c r="AH60" t="n">
         <v>27</v>
       </c>
-      <c r="AG60" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH60" t="n">
+      <c r="AI60" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>18</v>
       </c>
-      <c r="AI60" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>75</v>
-      </c>
       <c r="AK60" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AL60" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM60" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AN60" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AO60" t="n">
-        <v>17</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,127 +8623,127 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>3.95</v>
       </c>
       <c r="H61" t="n">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="I61" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="J61" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="K61" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L61" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O61" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V61" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q61" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
-      <c r="T61" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V61" t="n">
-        <v>2.46</v>
-      </c>
       <c r="W61" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="X61" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y61" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AA61" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG61" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB61" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF61" t="n">
+      <c r="AH61" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL61" t="n">
         <v>55</v>
       </c>
-      <c r="AG61" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>120</v>
-      </c>
       <c r="AM61" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AN61" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AO61" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,127 +8758,127 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.66</v>
+        <v>3.15</v>
       </c>
       <c r="G62" t="n">
-        <v>1.74</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
-        <v>6.2</v>
+        <v>2.6</v>
       </c>
       <c r="I62" t="n">
-        <v>7.2</v>
+        <v>2.62</v>
       </c>
       <c r="J62" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K62" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M62" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R62" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T62" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="U62" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="V62" t="n">
-        <v>1.16</v>
+        <v>1.62</v>
       </c>
       <c r="W62" t="n">
-        <v>2.34</v>
+        <v>1.46</v>
       </c>
       <c r="X62" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y62" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF62" t="n">
         <v>19</v>
       </c>
-      <c r="Z62" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AG62" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AI62" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AJ62" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AK62" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AL62" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM62" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AN62" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AO62" t="n">
-        <v>230</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,127 +8893,127 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>AC Horsens</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.86</v>
+        <v>1.75</v>
       </c>
       <c r="G63" t="n">
-        <v>3.05</v>
+        <v>2.04</v>
       </c>
       <c r="H63" t="n">
-        <v>2.86</v>
+        <v>3.85</v>
       </c>
       <c r="I63" t="n">
-        <v>3.05</v>
+        <v>6.6</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K63" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="L63" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M63" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="O63" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="P63" t="n">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.24</v>
+        <v>1.28</v>
       </c>
       <c r="R63" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="S63" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="T63" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V63" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="X63" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y63" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z63" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA63" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD63" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE63" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG63" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH63" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI63" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK63" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL63" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM63" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO63" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,121 +9028,121 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.48</v>
+        <v>6.6</v>
       </c>
       <c r="G64" t="n">
-        <v>1.71</v>
+        <v>6.8</v>
       </c>
       <c r="H64" t="n">
-        <v>5.6</v>
+        <v>1.66</v>
       </c>
       <c r="I64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD64" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J64" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S64" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W64" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE64" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG64" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI64" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK64" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM64" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO64" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -9178,7 +9178,7 @@
         <v>3.9</v>
       </c>
       <c r="H65" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I65" t="n">
         <v>3.1</v>
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G66" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>6.6</v>
@@ -9340,7 +9340,7 @@
         <v>3.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R66" t="n">
         <v>2.02</v>
@@ -9349,10 +9349,10 @@
         <v>1.93</v>
       </c>
       <c r="T66" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U66" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V66" t="n">
         <v>1.16</v>
@@ -9361,7 +9361,7 @@
         <v>3</v>
       </c>
       <c r="X66" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y66" t="n">
         <v>100</v>
@@ -9445,19 +9445,19 @@
         <v>4.6</v>
       </c>
       <c r="G67" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H67" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I67" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="J67" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K67" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
         <v>1.4</v>
@@ -9490,7 +9490,7 @@
         <v>1.87</v>
       </c>
       <c r="V67" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W67" t="n">
         <v>1.25</v>
@@ -9502,7 +9502,7 @@
         <v>980</v>
       </c>
       <c r="Z67" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AA67" t="n">
         <v>21</v>
@@ -9517,10 +9517,10 @@
         <v>980</v>
       </c>
       <c r="AE67" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AF67" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG67" t="n">
         <v>980</v>
@@ -9535,7 +9535,7 @@
         <v>130</v>
       </c>
       <c r="AK67" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL67" t="n">
         <v>70</v>
@@ -9544,7 +9544,7 @@
         <v>130</v>
       </c>
       <c r="AN67" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO67" t="n">
         <v>13.5</v>
@@ -9718,7 +9718,7 @@
         <v>2.12</v>
       </c>
       <c r="H69" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
         <v>4.8</v>
@@ -9727,7 +9727,7 @@
         <v>3.9</v>
       </c>
       <c r="K69" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9748,10 +9748,10 @@
         <v>1.37</v>
       </c>
       <c r="R69" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9850,7 +9850,7 @@
         <v>2.44</v>
       </c>
       <c r="G70" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H70" t="n">
         <v>3.7</v>
@@ -9898,7 +9898,7 @@
         <v>1.31</v>
       </c>
       <c r="W70" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X70" t="n">
         <v>980</v>
@@ -9952,7 +9952,7 @@
         <v>80</v>
       </c>
       <c r="AO70" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71">
@@ -10006,19 +10006,19 @@
         <v>1.02</v>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O71" t="n">
         <v>1.11</v>
       </c>
       <c r="P71" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q71" t="n">
         <v>1.13</v>
       </c>
       <c r="R71" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S71" t="n">
         <v>1.89</v>
@@ -10027,7 +10027,7 @@
         <v>1.5</v>
       </c>
       <c r="U71" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V71" t="n">
         <v>1.09</v>
@@ -10123,16 +10123,16 @@
         <v>20</v>
       </c>
       <c r="H72" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="I72" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J72" t="n">
-        <v>4.2</v>
+        <v>1.09</v>
       </c>
       <c r="K72" t="n">
-        <v>110</v>
+        <v>9.4</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10147,10 +10147,10 @@
         <v>1.29</v>
       </c>
       <c r="P72" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R72" t="n">
         <v>1.27</v>
@@ -10165,7 +10165,7 @@
         <v>1.01</v>
       </c>
       <c r="V72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W72" t="n">
         <v>1.05</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="G73" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="H73" t="n">
         <v>1.38</v>
       </c>
       <c r="I73" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J73" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L73" t="n">
         <v>1.33</v>
@@ -10291,7 +10291,7 @@
         <v>1.39</v>
       </c>
       <c r="S73" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
@@ -10300,7 +10300,7 @@
         <v>1.64</v>
       </c>
       <c r="V73" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W73" t="n">
         <v>1.09</v>
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G74" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H74" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="I74" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J74" t="n">
         <v>3.5</v>
@@ -10417,13 +10417,13 @@
         <v>1.32</v>
       </c>
       <c r="P74" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R74" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S74" t="n">
         <v>3.4</v>
@@ -10432,10 +10432,10 @@
         <v>1.8</v>
       </c>
       <c r="U74" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V74" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W74" t="n">
         <v>1.27</v>
@@ -10570,7 +10570,7 @@
         <v>2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W75" t="n">
         <v>1.59</v>
@@ -10666,10 +10666,10 @@
         <v>3.65</v>
       </c>
       <c r="I76" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J76" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K76" t="n">
         <v>8.800000000000001</v>
@@ -10837,7 +10837,7 @@
         <v>1.83</v>
       </c>
       <c r="U77" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V77" t="n">
         <v>1.16</v>
@@ -10930,7 +10930,7 @@
         <v>3.45</v>
       </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>1.98</v>
@@ -10957,28 +10957,28 @@
         <v>1.24</v>
       </c>
       <c r="P78" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="R78" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S78" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="T78" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="U78" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V78" t="n">
         <v>1.83</v>
       </c>
       <c r="W78" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X78" t="n">
         <v>28</v>
@@ -10987,13 +10987,13 @@
         <v>980</v>
       </c>
       <c r="Z78" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA78" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AB78" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AC78" t="n">
         <v>980</v>
@@ -11002,25 +11002,25 @@
         <v>980</v>
       </c>
       <c r="AE78" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF78" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG78" t="n">
         <v>980</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI78" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ78" t="n">
         <v>1000</v>
       </c>
       <c r="AK78" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL78" t="n">
         <v>65</v>
@@ -11065,10 +11065,10 @@
         <v>1.55</v>
       </c>
       <c r="G79" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H79" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I79" t="n">
         <v>8.800000000000001</v>
@@ -11104,7 +11104,7 @@
         <v>2.92</v>
       </c>
       <c r="T79" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U79" t="n">
         <v>1.74</v>
@@ -11200,10 +11200,10 @@
         <v>1.71</v>
       </c>
       <c r="G80" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H80" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I80" t="n">
         <v>6.4</v>
@@ -11230,25 +11230,25 @@
         <v>1.81</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R80" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S80" t="n">
         <v>4</v>
       </c>
       <c r="T80" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U80" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V80" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W80" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X80" t="n">
         <v>13</v>
@@ -11257,7 +11257,7 @@
         <v>17.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA80" t="n">
         <v>190</v>
@@ -11272,10 +11272,10 @@
         <v>24</v>
       </c>
       <c r="AE80" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF80" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG80" t="n">
         <v>10</v>
@@ -11335,7 +11335,7 @@
         <v>1.87</v>
       </c>
       <c r="G81" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H81" t="n">
         <v>4.7</v>
@@ -11365,10 +11365,10 @@
         <v>2.1</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R81" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S81" t="n">
         <v>3.2</v>
@@ -11398,13 +11398,13 @@
         <v>110</v>
       </c>
       <c r="AB81" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC81" t="n">
         <v>8.6</v>
       </c>
       <c r="AD81" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE81" t="n">
         <v>55</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G82" t="n">
         <v>2.84</v>
@@ -11482,7 +11482,7 @@
         <v>3.45</v>
       </c>
       <c r="K82" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L82" t="n">
         <v>1.44</v>
@@ -11494,13 +11494,13 @@
         <v>3.55</v>
       </c>
       <c r="O82" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P82" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
         <v>1.33</v>
@@ -11509,7 +11509,7 @@
         <v>3.8</v>
       </c>
       <c r="T82" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U82" t="n">
         <v>2.12</v>
@@ -11524,10 +11524,10 @@
         <v>13</v>
       </c>
       <c r="Y82" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z82" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA82" t="n">
         <v>44</v>
@@ -11545,7 +11545,7 @@
         <v>32</v>
       </c>
       <c r="AF82" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG82" t="n">
         <v>12.5</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G83" t="n">
         <v>1.93</v>
@@ -11614,7 +11614,7 @@
         <v>5.8</v>
       </c>
       <c r="J83" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K83" t="n">
         <v>3.65</v>
@@ -11635,7 +11635,7 @@
         <v>1.55</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.45</v>
+        <v>2.22</v>
       </c>
       <c r="R83" t="n">
         <v>1.18</v>
@@ -11692,19 +11692,19 @@
         <v>130</v>
       </c>
       <c r="AJ83" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK83" t="n">
         <v>29</v>
       </c>
       <c r="AL83" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM83" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN83" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO83" t="n">
         <v>180</v>
@@ -11740,10 +11740,10 @@
         <v>2.4</v>
       </c>
       <c r="G84" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H84" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I84" t="n">
         <v>3.6</v>
@@ -11776,10 +11776,10 @@
         <v>1.29</v>
       </c>
       <c r="S84" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T84" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U84" t="n">
         <v>1.01</v>
@@ -12025,7 +12025,7 @@
         <v>5</v>
       </c>
       <c r="L86" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M86" t="n">
         <v>1.06</v>
@@ -12061,10 +12061,10 @@
         <v>3.15</v>
       </c>
       <c r="X86" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y86" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z86" t="n">
         <v>75</v>
@@ -12073,7 +12073,7 @@
         <v>320</v>
       </c>
       <c r="AB86" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC86" t="n">
         <v>11</v>
@@ -12169,16 +12169,16 @@
         <v>3.2</v>
       </c>
       <c r="O87" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P87" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q87" t="n">
         <v>2.32</v>
       </c>
       <c r="R87" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S87" t="n">
         <v>4.5</v>
@@ -12292,13 +12292,13 @@
         <v>7.8</v>
       </c>
       <c r="K88" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L88" t="n">
         <v>1.26</v>
       </c>
       <c r="M88" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N88" t="n">
         <v>5.4</v>
@@ -12307,10 +12307,10 @@
         <v>1.18</v>
       </c>
       <c r="P88" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R88" t="n">
         <v>1.61</v>
@@ -12319,10 +12319,10 @@
         <v>2.34</v>
       </c>
       <c r="T88" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U88" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V88" t="n">
         <v>1.04</v>
@@ -12346,10 +12346,10 @@
         <v>980</v>
       </c>
       <c r="AC88" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AD88" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AE88" t="n">
         <v>1000</v>
@@ -12448,10 +12448,10 @@
         <v>1.75</v>
       </c>
       <c r="R89" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S89" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T89" t="n">
         <v>1.01</v>
@@ -12559,7 +12559,7 @@
         <v>2.74</v>
       </c>
       <c r="J90" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K90" t="n">
         <v>110</v>
@@ -12583,10 +12583,10 @@
         <v>1.8</v>
       </c>
       <c r="R90" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S90" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T90" t="n">
         <v>1.01</v>
@@ -12697,7 +12697,7 @@
         <v>4.4</v>
       </c>
       <c r="K91" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L91" t="n">
         <v>1.24</v>
@@ -12712,7 +12712,7 @@
         <v>1.17</v>
       </c>
       <c r="P91" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q91" t="n">
         <v>1.5</v>
@@ -12721,7 +12721,7 @@
         <v>1.7</v>
       </c>
       <c r="S91" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T91" t="n">
         <v>1.58</v>
@@ -12730,16 +12730,16 @@
         <v>2.48</v>
       </c>
       <c r="V91" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W91" t="n">
         <v>1.23</v>
       </c>
       <c r="X91" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Y91" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z91" t="n">
         <v>14</v>
@@ -12760,10 +12760,10 @@
         <v>980</v>
       </c>
       <c r="AF91" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AG91" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH91" t="n">
         <v>21</v>
@@ -12778,7 +12778,7 @@
         <v>55</v>
       </c>
       <c r="AL91" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM91" t="n">
         <v>65</v>
@@ -12829,7 +12829,7 @@
         <v>3.15</v>
       </c>
       <c r="J92" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K92" t="n">
         <v>950</v>
@@ -12841,7 +12841,7 @@
         <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="O92" t="n">
         <v>1.02</v>
@@ -12856,7 +12856,7 @@
         <v>1.24</v>
       </c>
       <c r="S92" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T92" t="n">
         <v>1.01</v>
@@ -12868,7 +12868,7 @@
         <v>1.46</v>
       </c>
       <c r="W92" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X92" t="n">
         <v>1000</v>
@@ -12988,7 +12988,7 @@
         <v>1.44</v>
       </c>
       <c r="R93" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S93" t="n">
         <v>2.02</v>
@@ -13096,10 +13096,10 @@
         <v>12</v>
       </c>
       <c r="I94" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="J94" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K94" t="n">
         <v>10.5</v>
@@ -13111,10 +13111,10 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>12.5</v>
+        <v>4.9</v>
       </c>
       <c r="O94" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P94" t="n">
         <v>4.9</v>
@@ -13123,16 +13123,16 @@
         <v>1.2</v>
       </c>
       <c r="R94" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="S94" t="n">
         <v>1.5</v>
       </c>
       <c r="T94" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U94" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V94" t="n">
         <v>1.06</v>
@@ -13141,7 +13141,7 @@
         <v>5</v>
       </c>
       <c r="X94" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Y94" t="n">
         <v>110</v>
@@ -13150,7 +13150,7 @@
         <v>200</v>
       </c>
       <c r="AA94" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AB94" t="n">
         <v>26</v>
@@ -13168,13 +13168,13 @@
         <v>16.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH94" t="n">
         <v>32</v>
       </c>
       <c r="AI94" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ94" t="n">
         <v>14</v>
@@ -13222,10 +13222,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G95" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H95" t="n">
         <v>2.5</v>
@@ -13234,7 +13234,7 @@
         <v>3.7</v>
       </c>
       <c r="J95" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K95" t="n">
         <v>950</v>
@@ -13246,28 +13246,28 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="O95" t="n">
         <v>1.28</v>
       </c>
       <c r="P95" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R95" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S95" t="n">
         <v>2.68</v>
       </c>
       <c r="T95" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U95" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V95" t="n">
         <v>1.4</v>
@@ -13369,7 +13369,7 @@
         <v>1000</v>
       </c>
       <c r="J96" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K96" t="n">
         <v>1000</v>
@@ -13393,7 +13393,7 @@
         <v>1.73</v>
       </c>
       <c r="R96" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S96" t="n">
         <v>2.72</v>
@@ -13492,22 +13492,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="G97" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H97" t="n">
         <v>3.85</v>
       </c>
       <c r="I97" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.09</v>
+        <v>2.52</v>
       </c>
       <c r="K97" t="n">
-        <v>110</v>
+        <v>3.6</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>
@@ -13537,13 +13537,13 @@
         <v>1.01</v>
       </c>
       <c r="U97" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V97" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W97" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X97" t="n">
         <v>12</v>
@@ -13630,7 +13630,7 @@
         <v>3.05</v>
       </c>
       <c r="G98" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H98" t="n">
         <v>2.1</v>
@@ -13639,7 +13639,7 @@
         <v>2.7</v>
       </c>
       <c r="J98" t="n">
-        <v>1.09</v>
+        <v>2.44</v>
       </c>
       <c r="K98" t="n">
         <v>1000</v>
@@ -13660,7 +13660,7 @@
         <v>1.57</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R98" t="n">
         <v>1.18</v>
@@ -13678,7 +13678,7 @@
         <v>1.58</v>
       </c>
       <c r="W98" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X98" t="n">
         <v>1000</v>
@@ -13765,10 +13765,10 @@
         <v>4.1</v>
       </c>
       <c r="G99" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="H99" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I99" t="n">
         <v>1.85</v>
@@ -13777,7 +13777,7 @@
         <v>4</v>
       </c>
       <c r="K99" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13900,13 +13900,13 @@
         <v>1.8</v>
       </c>
       <c r="G100" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H100" t="n">
         <v>3.55</v>
       </c>
       <c r="I100" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J100" t="n">
         <v>3.25</v>
@@ -13921,13 +13921,13 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O100" t="n">
         <v>1.26</v>
       </c>
       <c r="P100" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q100" t="n">
         <v>1.67</v>
@@ -13945,10 +13945,10 @@
         <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W100" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14038,7 +14038,7 @@
         <v>2.58</v>
       </c>
       <c r="H101" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I101" t="n">
         <v>3.55</v>
@@ -14047,7 +14047,7 @@
         <v>3.25</v>
       </c>
       <c r="K101" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L101" t="n">
         <v>1.01</v>
@@ -14065,7 +14065,7 @@
         <v>1.82</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R101" t="n">
         <v>1.31</v>
@@ -14080,10 +14080,10 @@
         <v>2.06</v>
       </c>
       <c r="V101" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="X101" t="n">
         <v>970</v>
@@ -14095,7 +14095,7 @@
         <v>24</v>
       </c>
       <c r="AA101" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB101" t="n">
         <v>970</v>
@@ -14125,7 +14125,7 @@
         <v>36</v>
       </c>
       <c r="AK101" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL101" t="n">
         <v>44</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G102" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H102" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I102" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J102" t="n">
         <v>3.8</v>
       </c>
       <c r="K102" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L102" t="n">
         <v>1.01</v>
@@ -14203,10 +14203,10 @@
         <v>1.56</v>
       </c>
       <c r="R102" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S102" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T102" t="n">
         <v>1.01</v>
@@ -14215,10 +14215,10 @@
         <v>1.01</v>
       </c>
       <c r="V102" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W102" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X102" t="n">
         <v>1000</v>
@@ -14347,7 +14347,7 @@
         <v>2.08</v>
       </c>
       <c r="U103" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V103" t="n">
         <v>1.01</v>
@@ -14455,22 +14455,22 @@
         <v>4.2</v>
       </c>
       <c r="L104" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M104" t="n">
         <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O104" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P104" t="n">
         <v>1.94</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R104" t="n">
         <v>1.35</v>
@@ -14479,10 +14479,10 @@
         <v>3.35</v>
       </c>
       <c r="T104" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U104" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V104" t="n">
         <v>1.2</v>
@@ -14575,7 +14575,7 @@
         <v>1.09</v>
       </c>
       <c r="G105" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H105" t="n">
         <v>1.09</v>
@@ -14584,7 +14584,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K105" t="n">
         <v>110</v>
@@ -14596,19 +14596,19 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="O105" t="n">
         <v>1.14</v>
       </c>
       <c r="P105" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R105" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S105" t="n">
         <v>1.96</v>
@@ -14623,7 +14623,7 @@
         <v>1.5</v>
       </c>
       <c r="W105" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14710,7 +14710,7 @@
         <v>1.57</v>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H106" t="n">
         <v>7.4</v>
@@ -14719,7 +14719,7 @@
         <v>8.6</v>
       </c>
       <c r="J106" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K106" t="n">
         <v>4.5</v>
@@ -14737,28 +14737,28 @@
         <v>1.34</v>
       </c>
       <c r="P106" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R106" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S106" t="n">
         <v>3.35</v>
       </c>
       <c r="T106" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U106" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V106" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W106" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X106" t="n">
         <v>1000</v>
@@ -14845,7 +14845,7 @@
         <v>2.34</v>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H107" t="n">
         <v>2.98</v>
@@ -14893,7 +14893,7 @@
         <v>1.35</v>
       </c>
       <c r="W107" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X107" t="n">
         <v>1000</v>
@@ -14980,19 +14980,19 @@
         <v>1.47</v>
       </c>
       <c r="G108" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="H108" t="n">
         <v>5.4</v>
       </c>
       <c r="I108" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J108" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K108" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -15112,10 +15112,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G109" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H109" t="n">
         <v>2.28</v>
@@ -15127,7 +15127,7 @@
         <v>3</v>
       </c>
       <c r="K109" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L109" t="n">
         <v>1.01</v>
@@ -15142,7 +15142,7 @@
         <v>1.6</v>
       </c>
       <c r="P109" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q109" t="n">
         <v>2.72</v>
@@ -15163,10 +15163,10 @@
         <v>1.67</v>
       </c>
       <c r="W109" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X109" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y109" t="n">
         <v>7.2</v>
@@ -15202,7 +15202,7 @@
         <v>75</v>
       </c>
       <c r="AJ109" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK109" t="n">
         <v>75</v>
@@ -15214,7 +15214,7 @@
         <v>290</v>
       </c>
       <c r="AN109" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO109" t="n">
         <v>50</v>
@@ -15247,85 +15247,85 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G110" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H110" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J110" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K110" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L110" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M110" t="n">
         <v>1.08</v>
       </c>
       <c r="N110" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O110" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P110" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R110" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S110" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T110" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="U110" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="V110" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W110" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="X110" t="n">
         <v>980</v>
       </c>
       <c r="Y110" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z110" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AA110" t="n">
         <v>1000</v>
       </c>
       <c r="AB110" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC110" t="n">
         <v>14.5</v>
       </c>
       <c r="AD110" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE110" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AF110" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AG110" t="n">
         <v>13</v>
@@ -15334,22 +15334,22 @@
         <v>55</v>
       </c>
       <c r="AI110" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AJ110" t="n">
         <v>12</v>
       </c>
       <c r="AK110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL110" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM110" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AN110" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AO110" t="n">
         <v>1000</v>
@@ -15406,22 +15406,22 @@
         <v>1.12</v>
       </c>
       <c r="N111" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O111" t="n">
         <v>1.5</v>
       </c>
       <c r="P111" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q111" t="n">
         <v>2.66</v>
       </c>
       <c r="R111" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S111" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T111" t="n">
         <v>2.08</v>
@@ -15445,7 +15445,7 @@
         <v>980</v>
       </c>
       <c r="AA111" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB111" t="n">
         <v>980</v>
@@ -15457,7 +15457,7 @@
         <v>980</v>
       </c>
       <c r="AE111" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF111" t="n">
         <v>32</v>
@@ -15472,10 +15472,10 @@
         <v>70</v>
       </c>
       <c r="AJ111" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK111" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL111" t="n">
         <v>110</v>
@@ -15484,10 +15484,10 @@
         <v>1000</v>
       </c>
       <c r="AN111" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO111" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="112">
@@ -15526,22 +15526,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J112" t="n">
         <v>4.1</v>
       </c>
       <c r="K112" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L112" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M112" t="n">
         <v>1.08</v>
       </c>
       <c r="N112" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O112" t="n">
         <v>1.38</v>
@@ -15562,13 +15562,13 @@
         <v>2.3</v>
       </c>
       <c r="U112" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V112" t="n">
         <v>1.1</v>
       </c>
       <c r="W112" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X112" t="n">
         <v>13</v>
@@ -15652,16 +15652,16 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="G113" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I113" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="J113" t="n">
         <v>3.2</v>
@@ -15670,7 +15670,7 @@
         <v>3.5</v>
       </c>
       <c r="L113" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M113" t="n">
         <v>1.09</v>
@@ -15700,10 +15700,10 @@
         <v>2.02</v>
       </c>
       <c r="V113" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W113" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X113" t="n">
         <v>12</v>
@@ -15712,7 +15712,7 @@
         <v>10.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AA113" t="n">
         <v>980</v>
@@ -15724,7 +15724,7 @@
         <v>7.6</v>
       </c>
       <c r="AD113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE113" t="n">
         <v>980</v>
@@ -15736,7 +15736,7 @@
         <v>13</v>
       </c>
       <c r="AH113" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI113" t="n">
         <v>980</v>
@@ -15922,46 +15922,46 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="G115" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="H115" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="I115" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="J115" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K115" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L115" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M115" t="n">
         <v>1.01</v>
       </c>
       <c r="N115" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O115" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P115" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R115" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S115" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T115" t="n">
         <v>1.01</v>
@@ -15970,10 +15970,10 @@
         <v>1.01</v>
       </c>
       <c r="V115" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W115" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="X115" t="n">
         <v>1000</v>
@@ -16057,13 +16057,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G116" t="n">
         <v>3.35</v>
       </c>
       <c r="H116" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I116" t="n">
         <v>3.75</v>
@@ -16072,31 +16072,31 @@
         <v>2.78</v>
       </c>
       <c r="K116" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L116" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M116" t="n">
         <v>1.01</v>
       </c>
       <c r="N116" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="O116" t="n">
         <v>1.01</v>
       </c>
       <c r="P116" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R116" t="n">
         <v>1.18</v>
       </c>
       <c r="S116" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T116" t="n">
         <v>1.01</v>
@@ -16192,25 +16192,25 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G117" t="n">
         <v>3.05</v>
       </c>
       <c r="H117" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I117" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J117" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="K117" t="n">
         <v>980</v>
       </c>
       <c r="L117" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M117" t="n">
         <v>1.01</v>
@@ -16225,13 +16225,13 @@
         <v>1.42</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="R117" t="n">
         <v>1.18</v>
       </c>
       <c r="S117" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="T117" t="n">
         <v>1.01</v>
@@ -16240,7 +16240,7 @@
         <v>1.01</v>
       </c>
       <c r="V117" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W117" t="n">
         <v>1.5</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G118" t="n">
         <v>2.06</v>
@@ -16339,10 +16339,10 @@
         <v>4.5</v>
       </c>
       <c r="J118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K118" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K118" t="n">
-        <v>3.6</v>
       </c>
       <c r="L118" t="n">
         <v>1.4</v>
@@ -16354,7 +16354,7 @@
         <v>4</v>
       </c>
       <c r="O118" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P118" t="n">
         <v>2.02</v>
@@ -16363,13 +16363,13 @@
         <v>1.94</v>
       </c>
       <c r="R118" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S118" t="n">
         <v>3.3</v>
       </c>
       <c r="T118" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U118" t="n">
         <v>2.22</v>
@@ -16597,10 +16597,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G120" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>3.9</v>
@@ -16627,10 +16627,10 @@
         <v>1.61</v>
       </c>
       <c r="P120" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="R120" t="n">
         <v>1.16</v>
@@ -16693,7 +16693,7 @@
         <v>980</v>
       </c>
       <c r="AL120" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM120" t="n">
         <v>280</v>
@@ -16732,13 +16732,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G121" t="n">
         <v>3.05</v>
       </c>
       <c r="H121" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I121" t="n">
         <v>2.96</v>
@@ -16747,7 +16747,7 @@
         <v>3.3</v>
       </c>
       <c r="K121" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L121" t="n">
         <v>1.01</v>
@@ -16756,13 +16756,13 @@
         <v>1.01</v>
       </c>
       <c r="N121" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O121" t="n">
         <v>1.32</v>
       </c>
       <c r="P121" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q121" t="n">
         <v>1.89</v>
@@ -16792,10 +16792,10 @@
         <v>17</v>
       </c>
       <c r="Z121" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA121" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB121" t="n">
         <v>17.5</v>
@@ -16807,7 +16807,7 @@
         <v>18</v>
       </c>
       <c r="AE121" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF121" t="n">
         <v>29</v>
@@ -16876,7 +16876,7 @@
         <v>1.09</v>
       </c>
       <c r="I122" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="J122" t="n">
         <v>3.5</v>
@@ -16915,7 +16915,7 @@
         <v>1.01</v>
       </c>
       <c r="V122" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W122" t="n">
         <v>1.28</v>
@@ -17026,19 +17026,19 @@
         <v>1.01</v>
       </c>
       <c r="N123" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O123" t="n">
         <v>1.36</v>
       </c>
       <c r="P123" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q123" t="n">
         <v>1.91</v>
       </c>
       <c r="R123" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S123" t="n">
         <v>3.2</v>
@@ -17140,13 +17140,13 @@
         <v>1.97</v>
       </c>
       <c r="G124" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H124" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I124" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="J124" t="n">
         <v>3.3</v>
@@ -17164,46 +17164,46 @@
         <v>3.3</v>
       </c>
       <c r="O124" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P124" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q124" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R124" t="n">
         <v>1.3</v>
       </c>
       <c r="S124" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T124" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U124" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V124" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W124" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="X124" t="n">
         <v>16</v>
       </c>
       <c r="Y124" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z124" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA124" t="n">
         <v>1000</v>
       </c>
       <c r="AB124" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC124" t="n">
         <v>9.6</v>
@@ -17272,22 +17272,22 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G125" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="H125" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I125" t="n">
         <v>3.1</v>
       </c>
       <c r="J125" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K125" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L125" t="n">
         <v>1.01</v>
@@ -17296,19 +17296,19 @@
         <v>1.01</v>
       </c>
       <c r="N125" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="O125" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P125" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R125" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S125" t="n">
         <v>2.46</v>
@@ -17320,10 +17320,10 @@
         <v>1.01</v>
       </c>
       <c r="V125" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W125" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="X125" t="n">
         <v>1000</v>
@@ -17407,7 +17407,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="G126" t="n">
         <v>4.4</v>
@@ -17422,7 +17422,7 @@
         <v>3.3</v>
       </c>
       <c r="K126" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L126" t="n">
         <v>1.44</v>
@@ -17452,7 +17452,7 @@
         <v>1.71</v>
       </c>
       <c r="U126" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V126" t="n">
         <v>1.73</v>
@@ -17542,7 +17542,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
         <v>2.6</v>
@@ -17551,13 +17551,13 @@
         <v>3.4</v>
       </c>
       <c r="I127" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J127" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="K127" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L127" t="n">
         <v>1.01</v>
@@ -17572,7 +17572,7 @@
         <v>1.37</v>
       </c>
       <c r="P127" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q127" t="n">
         <v>1.97</v>
@@ -17590,7 +17590,7 @@
         <v>1.01</v>
       </c>
       <c r="V127" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="W127" t="n">
         <v>1.63</v>
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G128" t="n">
         <v>1.83</v>
@@ -17710,7 +17710,7 @@
         <v>1.15</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R128" t="n">
         <v>1.15</v>
@@ -17743,7 +17743,7 @@
         <v>1000</v>
       </c>
       <c r="AB128" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC128" t="n">
         <v>12</v>
@@ -17767,7 +17767,7 @@
         <v>1000</v>
       </c>
       <c r="AJ128" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK128" t="n">
         <v>36</v>
@@ -17812,19 +17812,19 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G129" t="n">
         <v>1.41</v>
       </c>
       <c r="H129" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I129" t="n">
         <v>14</v>
       </c>
       <c r="J129" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="K129" t="n">
         <v>6.4</v>
@@ -17845,7 +17845,7 @@
         <v>2.04</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R129" t="n">
         <v>1.41</v>
@@ -17857,7 +17857,7 @@
         <v>2.16</v>
       </c>
       <c r="U129" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V129" t="n">
         <v>1.07</v>
@@ -17875,7 +17875,7 @@
         <v>140</v>
       </c>
       <c r="AA129" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="AB129" t="n">
         <v>8</v>
@@ -17887,7 +17887,7 @@
         <v>980</v>
       </c>
       <c r="AE129" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF129" t="n">
         <v>8</v>
@@ -17899,7 +17899,7 @@
         <v>980</v>
       </c>
       <c r="AI129" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ129" t="n">
         <v>11.5</v>
@@ -17911,13 +17911,13 @@
         <v>980</v>
       </c>
       <c r="AM129" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN129" t="n">
         <v>6.6</v>
       </c>
       <c r="AO129" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130">
@@ -18088,31 +18088,31 @@
         <v>1.94</v>
       </c>
       <c r="H131" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I131" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J131" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K131" t="n">
         <v>3.7</v>
       </c>
       <c r="L131" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M131" t="n">
         <v>1.1</v>
       </c>
       <c r="N131" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O131" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P131" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q131" t="n">
         <v>2.3</v>
@@ -18385,7 +18385,7 @@
         <v>1.9</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R133" t="n">
         <v>1.32</v>
@@ -18490,10 +18490,10 @@
         <v>2.58</v>
       </c>
       <c r="G134" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H134" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I134" t="n">
         <v>2.88</v>
@@ -18511,55 +18511,55 @@
         <v>1.05</v>
       </c>
       <c r="N134" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O134" t="n">
         <v>1.25</v>
       </c>
       <c r="P134" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q134" t="n">
         <v>1.84</v>
       </c>
       <c r="R134" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S134" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="T134" t="n">
         <v>1.54</v>
       </c>
       <c r="U134" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V134" t="n">
         <v>1.53</v>
       </c>
       <c r="W134" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X134" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y134" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z134" t="n">
         <v>24</v>
       </c>
       <c r="AA134" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB134" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC134" t="n">
         <v>10.5</v>
       </c>
       <c r="AD134" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE134" t="n">
         <v>980</v>
@@ -18574,7 +18574,7 @@
         <v>19</v>
       </c>
       <c r="AI134" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ134" t="n">
         <v>980</v>
@@ -18586,10 +18586,10 @@
         <v>980</v>
       </c>
       <c r="AM134" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN134" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO134" t="n">
         <v>25</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-23.xlsx
@@ -700,7 +700,7 @@
         <v>1.69</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.25</v>
@@ -841,7 +841,7 @@
         <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1105,7 +1105,7 @@
         <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
@@ -1750,7 +1750,7 @@
         <v>1.26</v>
       </c>
       <c r="G10" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="H10" t="n">
         <v>7.2</v>
@@ -1798,7 +1798,7 @@
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1891,13 +1891,13 @@
         <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="n">
         <v>2.86</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.31</v>
@@ -1930,7 +1930,7 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
         <v>1.51</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
         <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2155,19 +2155,19 @@
         <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2200,10 +2200,10 @@
         <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>6.6</v>
@@ -2302,7 +2302,7 @@
         <v>2.44</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.39</v>
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q14" t="n">
         <v>2.08</v>
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
         <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I15" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
@@ -2455,13 +2455,13 @@
         <v>1.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
         <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="T15" t="n">
         <v>1.04</v>
@@ -2563,16 +2563,16 @@
         <v>2.76</v>
       </c>
       <c r="H16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I16" t="n">
         <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2581,22 +2581,22 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O16" t="n">
         <v>1.04</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2698,19 +2698,19 @@
         <v>2.44</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2998,16 +2998,16 @@
         <v>1.43</v>
       </c>
       <c r="R19" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T19" t="n">
         <v>1.47</v>
       </c>
       <c r="U19" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="V19" t="n">
         <v>1.34</v>
@@ -3028,7 +3028,7 @@
         <v>80</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC19" t="n">
         <v>12</v>
@@ -3040,7 +3040,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3064,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO19" t="n">
         <v>20</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
@@ -3130,13 +3130,13 @@
         <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T20" t="n">
         <v>1.04</v>
@@ -3145,10 +3145,10 @@
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="W20" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G22" t="n">
         <v>1.52</v>
@@ -3379,7 +3379,7 @@
         <v>10.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K22" t="n">
         <v>5.6</v>
@@ -3394,7 +3394,7 @@
         <v>4.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
         <v>2.32</v>
@@ -3409,13 +3409,13 @@
         <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W22" t="n">
         <v>2.92</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="O23" t="n">
         <v>1.39</v>
@@ -3535,7 +3535,7 @@
         <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>1.21</v>
@@ -3640,7 +3640,7 @@
         <v>1.84</v>
       </c>
       <c r="G24" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="H24" t="n">
         <v>3.7</v>
@@ -3652,13 +3652,13 @@
         <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>500</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>3.35</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H25" t="n">
         <v>6.4</v>
@@ -3787,7 +3787,7 @@
         <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3805,13 +3805,13 @@
         <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R25" t="n">
         <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="T25" t="n">
         <v>1.04</v>
@@ -3823,7 +3823,7 @@
         <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3910,7 +3910,7 @@
         <v>2.16</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
@@ -3934,7 +3934,7 @@
         <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
         <v>2.08</v>
@@ -3946,7 +3946,7 @@
         <v>1.43</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
         <v>1.7</v>
@@ -3958,7 +3958,7 @@
         <v>1.36</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
         <v>19.5</v>
@@ -4045,10 +4045,10 @@
         <v>1.77</v>
       </c>
       <c r="G27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>6</v>
@@ -4057,7 +4057,7 @@
         <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R27" t="n">
         <v>1.38</v>
       </c>
       <c r="S27" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T27" t="n">
         <v>1.04</v>
@@ -4180,7 +4180,7 @@
         <v>2.24</v>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
@@ -4189,7 +4189,7 @@
         <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
@@ -4228,7 +4228,7 @@
         <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X28" t="n">
         <v>16</v>
@@ -4318,16 +4318,16 @@
         <v>2.72</v>
       </c>
       <c r="H29" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.33</v>
@@ -4345,7 +4345,7 @@
         <v>1.86</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="R29" t="n">
         <v>1.31</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H30" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
         <v>4.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,34 +4471,34 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>2.14</v>
+        <v>4.9</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="R30" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="S30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V30" t="n">
         <v>1.26</v>
       </c>
       <c r="W30" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X30" t="n">
         <v>27</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>3.2</v>
@@ -4591,7 +4591,7 @@
         <v>2.26</v>
       </c>
       <c r="I31" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J31" t="n">
         <v>3.9</v>
@@ -4612,7 +4612,7 @@
         <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q31" t="n">
         <v>1.54</v>
@@ -4630,7 +4630,7 @@
         <v>2.68</v>
       </c>
       <c r="V31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W31" t="n">
         <v>1.46</v>
@@ -4678,7 +4678,7 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM31" t="n">
         <v>55</v>
@@ -4723,7 +4723,7 @@
         <v>2.38</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I32" t="n">
         <v>3.95</v>
@@ -4750,7 +4750,7 @@
         <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R32" t="n">
         <v>1.21</v>
@@ -4765,7 +4765,7 @@
         <v>1.82</v>
       </c>
       <c r="V32" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W32" t="n">
         <v>1.72</v>
@@ -4873,7 +4873,7 @@
         <v>1.35</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
         <v>3.25</v>
@@ -4894,13 +4894,13 @@
         <v>3.7</v>
       </c>
       <c r="T33" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W33" t="n">
         <v>1.58</v>
@@ -5125,13 +5125,13 @@
         <v>2.12</v>
       </c>
       <c r="G35" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
         <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.55</v>
@@ -5161,19 +5161,19 @@
         <v>1.42</v>
       </c>
       <c r="S35" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="T35" t="n">
         <v>1.56</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="V35" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
         <v>22</v>
@@ -5287,7 +5287,7 @@
         <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="Q36" t="n">
         <v>1.95</v>
@@ -5296,7 +5296,7 @@
         <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="T36" t="n">
         <v>1.79</v>
@@ -5395,10 +5395,10 @@
         <v>3.15</v>
       </c>
       <c r="G37" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I37" t="n">
         <v>2.34</v>
@@ -5407,7 +5407,7 @@
         <v>3.95</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>1.31</v>
@@ -5476,7 +5476,7 @@
         <v>14.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI37" t="n">
         <v>36</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G38" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
@@ -5554,19 +5554,19 @@
         <v>4.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P38" t="n">
         <v>2.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R38" t="n">
         <v>1.53</v>
       </c>
       <c r="S38" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T38" t="n">
         <v>1.58</v>
@@ -5575,10 +5575,10 @@
         <v>2.5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W38" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X38" t="n">
         <v>25</v>
@@ -5611,13 +5611,13 @@
         <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI38" t="n">
         <v>38</v>
       </c>
       <c r="AJ38" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK38" t="n">
         <v>24</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H39" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="I39" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="J39" t="n">
         <v>5.7</v>
@@ -5686,31 +5686,31 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R39" t="n">
         <v>1.49</v>
       </c>
       <c r="S39" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="T39" t="n">
         <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V39" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="W39" t="n">
         <v>1.06</v>
@@ -5725,7 +5725,7 @@
         <v>980</v>
       </c>
       <c r="AA39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB39" t="n">
         <v>980</v>
@@ -5740,7 +5740,7 @@
         <v>980</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AG39" t="n">
         <v>980</v>
@@ -5800,19 +5800,19 @@
         <v>2.42</v>
       </c>
       <c r="G40" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H40" t="n">
         <v>2.78</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
         <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,13 +5821,13 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O40" t="n">
         <v>1.26</v>
       </c>
       <c r="P40" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q40" t="n">
         <v>1.76</v>
@@ -5845,7 +5845,7 @@
         <v>2.32</v>
       </c>
       <c r="V40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W40" t="n">
         <v>1.51</v>
@@ -5938,7 +5938,7 @@
         <v>2.46</v>
       </c>
       <c r="H41" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="I41" t="n">
         <v>2.98</v>
@@ -5947,7 +5947,7 @@
         <v>3.9</v>
       </c>
       <c r="K41" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.32</v>
@@ -5977,7 +5977,7 @@
         <v>1.58</v>
       </c>
       <c r="U41" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V41" t="n">
         <v>1.5</v>
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G42" t="n">
         <v>1.95</v>
       </c>
       <c r="H42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
         <v>4.7</v>
@@ -6091,7 +6091,7 @@
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>4.1</v>
+        <v>2.26</v>
       </c>
       <c r="O42" t="n">
         <v>1.2</v>
@@ -6103,13 +6103,13 @@
         <v>1.57</v>
       </c>
       <c r="R42" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S42" t="n">
         <v>2.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="U42" t="n">
         <v>2.48</v>
@@ -6205,7 +6205,7 @@
         <v>1.75</v>
       </c>
       <c r="G43" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>4.6</v>
@@ -6253,7 +6253,7 @@
         <v>1.23</v>
       </c>
       <c r="W43" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="X43" t="n">
         <v>23</v>
@@ -6286,16 +6286,16 @@
         <v>10.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI43" t="n">
         <v>60</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AK43" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AL43" t="n">
         <v>32</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G44" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I44" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="L44" t="n">
         <v>1.31</v>
@@ -6385,10 +6385,10 @@
         <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W44" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X44" t="n">
         <v>970</v>
@@ -6481,7 +6481,7 @@
         <v>1.47</v>
       </c>
       <c r="I45" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="J45" t="n">
         <v>4</v>
@@ -6502,10 +6502,10 @@
         <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="R45" t="n">
         <v>1.45</v>
@@ -6520,7 +6520,7 @@
         <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="W45" t="n">
         <v>1.12</v>
@@ -6619,7 +6619,7 @@
         <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="K46" t="n">
         <v>6.2</v>
@@ -6631,16 +6631,16 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="O46" t="n">
         <v>1.13</v>
       </c>
       <c r="P46" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="R46" t="n">
         <v>1.66</v>
@@ -6652,7 +6652,7 @@
         <v>1.61</v>
       </c>
       <c r="U46" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>1.1</v>
@@ -6772,10 +6772,10 @@
         <v>1.39</v>
       </c>
       <c r="P47" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R47" t="n">
         <v>1.25</v>
@@ -6784,10 +6784,10 @@
         <v>3.65</v>
       </c>
       <c r="T47" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="U47" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="V47" t="n">
         <v>1.08</v>
@@ -6883,16 +6883,16 @@
         <v>3.7</v>
       </c>
       <c r="H48" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="I48" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J48" t="n">
         <v>2.72</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L48" t="n">
         <v>1.4</v>
@@ -6925,7 +6925,7 @@
         <v>1.04</v>
       </c>
       <c r="V48" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W48" t="n">
         <v>1.37</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G49" t="n">
         <v>2.72</v>
@@ -7045,7 +7045,7 @@
         <v>1.48</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="R49" t="n">
         <v>1.18</v>
@@ -7054,7 +7054,7 @@
         <v>5.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="U49" t="n">
         <v>1.72</v>
@@ -7420,13 +7420,13 @@
         <v>3.4</v>
       </c>
       <c r="G52" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>2.1</v>
       </c>
       <c r="I52" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J52" t="n">
         <v>3.75</v>
@@ -7450,25 +7450,25 @@
         <v>2.2</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R52" t="n">
         <v>1.48</v>
       </c>
       <c r="S52" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T52" t="n">
         <v>1.62</v>
       </c>
       <c r="U52" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V52" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W52" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X52" t="n">
         <v>24</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G53" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H53" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I53" t="n">
         <v>8.199999999999999</v>
@@ -7585,13 +7585,13 @@
         <v>3.15</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R53" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T53" t="n">
         <v>1.62</v>
@@ -7828,10 +7828,10 @@
         <v>1.53</v>
       </c>
       <c r="H55" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I55" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J55" t="n">
         <v>4.7</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I56" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J56" t="n">
         <v>3.6</v>
       </c>
       <c r="K56" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7999,16 +7999,16 @@
         <v>2.86</v>
       </c>
       <c r="T56" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U56" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V56" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W56" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8230,7 +8230,7 @@
         <v>1.09</v>
       </c>
       <c r="G58" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H58" t="n">
         <v>1.05</v>
@@ -8251,16 +8251,16 @@
         <v>1.01</v>
       </c>
       <c r="N58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O58" t="n">
         <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R58" t="n">
         <v>1.44</v>
@@ -8362,40 +8362,40 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="G59" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K59" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8410,64 +8410,64 @@
         <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="W59" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="X59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G61" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H61" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="I61" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J61" t="n">
         <v>3.05</v>
@@ -8665,7 +8665,7 @@
         <v>1.69</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R61" t="n">
         <v>1.25</v>
@@ -8680,10 +8680,10 @@
         <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W61" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X61" t="n">
         <v>11</v>
@@ -8695,7 +8695,7 @@
         <v>970</v>
       </c>
       <c r="AA61" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB61" t="n">
         <v>10.5</v>
@@ -8704,7 +8704,7 @@
         <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE61" t="n">
         <v>38</v>
@@ -8902,25 +8902,25 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G63" t="n">
         <v>6.8</v>
       </c>
       <c r="H63" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I63" t="n">
         <v>1.68</v>
       </c>
       <c r="J63" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L63" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M63" t="n">
         <v>1.08</v>
@@ -8950,7 +8950,7 @@
         <v>1.84</v>
       </c>
       <c r="V63" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W63" t="n">
         <v>1.17</v>
@@ -9040,13 +9040,13 @@
         <v>3.1</v>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H64" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I64" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.62</v>
       </c>
       <c r="J64" t="n">
         <v>3.35</v>
@@ -9085,7 +9085,7 @@
         <v>2.04</v>
       </c>
       <c r="V64" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W64" t="n">
         <v>1.46</v>
@@ -9097,7 +9097,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z64" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA64" t="n">
         <v>36</v>
@@ -9112,13 +9112,13 @@
         <v>12</v>
       </c>
       <c r="AE64" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF64" t="n">
         <v>19</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH64" t="n">
         <v>18.5</v>
@@ -9187,10 +9187,10 @@
         <v>3.5</v>
       </c>
       <c r="K65" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L65" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
@@ -9214,13 +9214,13 @@
         <v>2.96</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U65" t="n">
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W65" t="n">
         <v>2</v>
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G66" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>2.16</v>
@@ -9319,7 +9319,7 @@
         <v>2.2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K66" t="n">
         <v>3.6</v>
@@ -9358,7 +9358,7 @@
         <v>1.83</v>
       </c>
       <c r="W66" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X66" t="n">
         <v>13</v>
@@ -9442,13 +9442,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="G67" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H67" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="I67" t="n">
         <v>3.1</v>
@@ -9457,7 +9457,7 @@
         <v>2.38</v>
       </c>
       <c r="K67" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
@@ -9466,16 +9466,16 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="O67" t="n">
         <v>1.34</v>
       </c>
       <c r="P67" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R67" t="n">
         <v>1.26</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G68" t="n">
         <v>1.5</v>
@@ -9601,7 +9601,7 @@
         <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.12</v>
@@ -9610,13 +9610,13 @@
         <v>3.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R68" t="n">
         <v>2.02</v>
       </c>
       <c r="S68" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T68" t="n">
         <v>1.55</v>
@@ -9634,10 +9634,10 @@
         <v>40</v>
       </c>
       <c r="Y68" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="Z68" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA68" t="n">
         <v>190</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G69" t="n">
         <v>2.26</v>
       </c>
       <c r="H69" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I69" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K69" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
@@ -9760,7 +9760,7 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W69" t="n">
         <v>1.8</v>
@@ -9850,7 +9850,7 @@
         <v>4.5</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H70" t="n">
         <v>1.86</v>
@@ -9865,7 +9865,7 @@
         <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
@@ -9898,7 +9898,7 @@
         <v>2.04</v>
       </c>
       <c r="W70" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X70" t="n">
         <v>17.5</v>
@@ -9997,7 +9997,7 @@
         <v>7.2</v>
       </c>
       <c r="K71" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10117,10 +10117,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G72" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H72" t="n">
         <v>3.5</v>
@@ -10129,10 +10129,10 @@
         <v>4.8</v>
       </c>
       <c r="J72" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K72" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,16 +10141,16 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O72" t="n">
         <v>1.14</v>
       </c>
       <c r="P72" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R72" t="n">
         <v>1.65</v>
@@ -10168,7 +10168,7 @@
         <v>1.26</v>
       </c>
       <c r="W72" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10252,58 +10252,58 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="G73" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H73" t="n">
-        <v>1.09</v>
+        <v>6</v>
       </c>
       <c r="I73" t="n">
         <v>1000</v>
       </c>
       <c r="J73" t="n">
-        <v>5.4</v>
+        <v>1.03</v>
       </c>
       <c r="K73" t="n">
         <v>1000</v>
       </c>
       <c r="L73" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M73" t="n">
         <v>1.02</v>
       </c>
       <c r="N73" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="O73" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P73" t="n">
-        <v>2.8</v>
+        <v>2.26</v>
       </c>
       <c r="Q73" t="n">
         <v>1.13</v>
       </c>
       <c r="R73" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="S73" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="T73" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U73" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="V73" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W73" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10537,19 +10537,19 @@
         <v>5.1</v>
       </c>
       <c r="K75" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L75" t="n">
         <v>1.33</v>
       </c>
       <c r="M75" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="O75" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P75" t="n">
         <v>2.14</v>
@@ -10558,16 +10558,16 @@
         <v>1.62</v>
       </c>
       <c r="R75" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S75" t="n">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="T75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U75" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="V75" t="n">
         <v>3.4</v>
@@ -10696,7 +10696,7 @@
         <v>1.27</v>
       </c>
       <c r="S76" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T76" t="n">
         <v>1.01</v>
@@ -10705,7 +10705,7 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W76" t="n">
         <v>1.05</v>
@@ -10798,13 +10798,13 @@
         <v>4.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="I77" t="n">
         <v>2.14</v>
       </c>
       <c r="J77" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K77" t="n">
         <v>3.95</v>
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H78" t="n">
         <v>3.05</v>
@@ -10951,13 +10951,13 @@
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="O78" t="n">
         <v>1.34</v>
       </c>
       <c r="P78" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q78" t="n">
         <v>1.9</v>
@@ -10966,7 +10966,7 @@
         <v>1.27</v>
       </c>
       <c r="S78" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T78" t="n">
         <v>1.01</v>
@@ -10975,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W78" t="n">
         <v>1.59</v>
@@ -11212,7 +11212,7 @@
         <v>4.2</v>
       </c>
       <c r="K80" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L80" t="n">
         <v>1.34</v>
@@ -11332,10 +11332,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="G81" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H81" t="n">
         <v>5.3</v>
@@ -11347,7 +11347,7 @@
         <v>3.1</v>
       </c>
       <c r="K81" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
@@ -11371,13 +11371,13 @@
         <v>1.35</v>
       </c>
       <c r="S81" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T81" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U81" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V81" t="n">
         <v>1.13</v>
@@ -11473,7 +11473,7 @@
         <v>4</v>
       </c>
       <c r="H82" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
         <v>2.2</v>
@@ -11488,7 +11488,7 @@
         <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N82" t="n">
         <v>4.3</v>
@@ -11500,13 +11500,13 @@
         <v>2.16</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R82" t="n">
         <v>1.45</v>
       </c>
       <c r="S82" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T82" t="n">
         <v>1.55</v>
@@ -11521,10 +11521,10 @@
         <v>1.33</v>
       </c>
       <c r="X82" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Y82" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z82" t="n">
         <v>980</v>
@@ -11533,13 +11533,13 @@
         <v>980</v>
       </c>
       <c r="AB82" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AC82" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD82" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE82" t="n">
         <v>980</v>
@@ -11548,7 +11548,7 @@
         <v>980</v>
       </c>
       <c r="AG82" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH82" t="n">
         <v>980</v>
@@ -11557,22 +11557,22 @@
         <v>980</v>
       </c>
       <c r="AJ82" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK82" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AL82" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM82" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO82" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="83">
@@ -11638,7 +11638,7 @@
         <v>2.16</v>
       </c>
       <c r="R83" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S83" t="n">
         <v>4</v>
@@ -11647,13 +11647,13 @@
         <v>2.1</v>
       </c>
       <c r="U83" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V83" t="n">
         <v>1.19</v>
       </c>
       <c r="W83" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X83" t="n">
         <v>13</v>
@@ -11674,7 +11674,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD83" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE83" t="n">
         <v>95</v>
@@ -11704,10 +11704,10 @@
         <v>170</v>
       </c>
       <c r="AN83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO83" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -11749,10 +11749,10 @@
         <v>4.8</v>
       </c>
       <c r="J84" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L84" t="n">
         <v>1.38</v>
@@ -11770,7 +11770,7 @@
         <v>2.1</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R84" t="n">
         <v>1.42</v>
@@ -11779,7 +11779,7 @@
         <v>3.2</v>
       </c>
       <c r="T84" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U84" t="n">
         <v>2.16</v>
@@ -11881,7 +11881,7 @@
         <v>2.78</v>
       </c>
       <c r="I85" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J85" t="n">
         <v>3.45</v>
@@ -11896,7 +11896,7 @@
         <v>1.08</v>
       </c>
       <c r="N85" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O85" t="n">
         <v>1.36</v>
@@ -11914,7 +11914,7 @@
         <v>3.8</v>
       </c>
       <c r="T85" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U85" t="n">
         <v>2.12</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G86" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H86" t="n">
         <v>5.1</v>
       </c>
       <c r="I86" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J86" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K86" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,40 +12031,40 @@
         <v>1.1</v>
       </c>
       <c r="N86" t="n">
-        <v>1.56</v>
+        <v>2.88</v>
       </c>
       <c r="O86" t="n">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="P86" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="R86" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S86" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T86" t="n">
         <v>2.1</v>
       </c>
       <c r="U86" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V86" t="n">
         <v>1.22</v>
       </c>
       <c r="W86" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X86" t="n">
         <v>12.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z86" t="n">
         <v>50</v>
@@ -12148,16 +12148,16 @@
         <v>3.35</v>
       </c>
       <c r="H87" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I87" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="J87" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K87" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12190,7 +12190,7 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W87" t="n">
         <v>1.43</v>
@@ -12277,22 +12277,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G88" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="H88" t="n">
         <v>2.56</v>
       </c>
       <c r="I88" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J88" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="K88" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12319,16 +12319,16 @@
         <v>3.05</v>
       </c>
       <c r="T88" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U88" t="n">
         <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="W88" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12430,7 +12430,7 @@
         <v>5</v>
       </c>
       <c r="L89" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M89" t="n">
         <v>1.06</v>
@@ -12442,10 +12442,10 @@
         <v>1.3</v>
       </c>
       <c r="P89" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R89" t="n">
         <v>1.41</v>
@@ -12466,7 +12466,7 @@
         <v>3.15</v>
       </c>
       <c r="X89" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y89" t="n">
         <v>26</v>
@@ -12487,7 +12487,7 @@
         <v>32</v>
       </c>
       <c r="AE89" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF89" t="n">
         <v>7.8</v>
@@ -12496,7 +12496,7 @@
         <v>10.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI89" t="n">
         <v>140</v>
@@ -12511,13 +12511,13 @@
         <v>40</v>
       </c>
       <c r="AM89" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN89" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO89" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90">
@@ -12550,7 +12550,7 @@
         <v>2.68</v>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H90" t="n">
         <v>3.05</v>
@@ -12607,7 +12607,7 @@
         <v>11</v>
       </c>
       <c r="Z90" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA90" t="n">
         <v>55</v>
@@ -12685,16 +12685,16 @@
         <v>1.33</v>
       </c>
       <c r="G91" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H91" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I91" t="n">
         <v>1000</v>
       </c>
       <c r="J91" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K91" t="n">
         <v>1000</v>
@@ -12733,7 +12733,7 @@
         <v>1.01</v>
       </c>
       <c r="W91" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="X91" t="n">
         <v>1000</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G92" t="n">
         <v>4.2</v>
@@ -12841,16 +12841,16 @@
         <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O92" t="n">
         <v>1.01</v>
       </c>
       <c r="P92" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R92" t="n">
         <v>1.3</v>
@@ -12955,13 +12955,13 @@
         <v>4.6</v>
       </c>
       <c r="G93" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H93" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I93" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J93" t="n">
         <v>4.4</v>
@@ -12991,7 +12991,7 @@
         <v>1.7</v>
       </c>
       <c r="S93" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T93" t="n">
         <v>1.58</v>
@@ -13000,10 +13000,10 @@
         <v>2.48</v>
       </c>
       <c r="V93" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W93" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X93" t="n">
         <v>980</v>
@@ -13093,7 +13093,7 @@
         <v>1.2</v>
       </c>
       <c r="H94" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="I94" t="n">
         <v>26</v>
@@ -13222,22 +13222,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="G95" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="H95" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I95" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J95" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K95" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L95" t="n">
         <v>1.48</v>
@@ -13249,31 +13249,31 @@
         <v>3.2</v>
       </c>
       <c r="O95" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P95" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R95" t="n">
         <v>1.27</v>
       </c>
       <c r="S95" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T95" t="n">
         <v>2.24</v>
       </c>
       <c r="U95" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V95" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W95" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X95" t="n">
         <v>11</v>
@@ -13282,7 +13282,7 @@
         <v>17.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA95" t="n">
         <v>240</v>
@@ -13294,13 +13294,13 @@
         <v>8.6</v>
       </c>
       <c r="AD95" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE95" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF95" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG95" t="n">
         <v>10.5</v>
@@ -13309,22 +13309,22 @@
         <v>27</v>
       </c>
       <c r="AI95" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ95" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL95" t="n">
         <v>50</v>
       </c>
       <c r="AM95" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN95" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO95" t="n">
         <v>200</v>
@@ -13360,7 +13360,7 @@
         <v>1.32</v>
       </c>
       <c r="G96" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>10.5</v>
@@ -13408,7 +13408,7 @@
         <v>1.07</v>
       </c>
       <c r="W96" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X96" t="n">
         <v>25</v>
@@ -13507,7 +13507,7 @@
         <v>3.1</v>
       </c>
       <c r="K97" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G98" t="n">
         <v>3.05</v>
@@ -13639,10 +13639,10 @@
         <v>2.96</v>
       </c>
       <c r="J98" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K98" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L98" t="n">
         <v>1.01</v>
@@ -13657,7 +13657,7 @@
         <v>1.15</v>
       </c>
       <c r="P98" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q98" t="n">
         <v>1.44</v>
@@ -13768,7 +13768,7 @@
         <v>1.25</v>
       </c>
       <c r="H99" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I99" t="n">
         <v>15</v>
@@ -13777,7 +13777,7 @@
         <v>8.4</v>
       </c>
       <c r="K99" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L99" t="n">
         <v>1.12</v>
@@ -13786,28 +13786,28 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="O99" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P99" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="R99" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="S99" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="T99" t="n">
         <v>1.61</v>
       </c>
       <c r="U99" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V99" t="n">
         <v>1.07</v>
@@ -13819,16 +13819,16 @@
         <v>100</v>
       </c>
       <c r="Y99" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="Z99" t="n">
         <v>200</v>
       </c>
       <c r="AA99" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AB99" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC99" t="n">
         <v>28</v>
@@ -13855,7 +13855,7 @@
         <v>14</v>
       </c>
       <c r="AK99" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL99" t="n">
         <v>28</v>
@@ -14062,10 +14062,10 @@
         <v>1.28</v>
       </c>
       <c r="P101" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R101" t="n">
         <v>1.33</v>
@@ -14182,7 +14182,7 @@
         <v>2.56</v>
       </c>
       <c r="K102" t="n">
-        <v>110</v>
+        <v>7.4</v>
       </c>
       <c r="L102" t="n">
         <v>1.01</v>
@@ -14191,16 +14191,16 @@
         <v>1.01</v>
       </c>
       <c r="N102" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="O102" t="n">
         <v>1.02</v>
       </c>
       <c r="P102" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R102" t="n">
         <v>1.16</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G103" t="n">
         <v>4.5</v>
       </c>
       <c r="H103" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="I103" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="J103" t="n">
         <v>2.52</v>
       </c>
       <c r="K103" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L103" t="n">
         <v>1.01</v>
@@ -14326,22 +14326,22 @@
         <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="O103" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="P103" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R103" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S103" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T103" t="n">
         <v>1.01</v>
@@ -14350,7 +14350,7 @@
         <v>1.01</v>
       </c>
       <c r="V103" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W103" t="n">
         <v>1.28</v>
@@ -14440,19 +14440,19 @@
         <v>4.1</v>
       </c>
       <c r="G104" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H104" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="I104" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J104" t="n">
         <v>4</v>
       </c>
       <c r="K104" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L104" t="n">
         <v>1.01</v>
@@ -14479,13 +14479,13 @@
         <v>2.46</v>
       </c>
       <c r="T104" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U104" t="n">
         <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W104" t="n">
         <v>1.17</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G105" t="n">
         <v>2.18</v>
@@ -14608,7 +14608,7 @@
         <v>1.69</v>
       </c>
       <c r="R105" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S105" t="n">
         <v>2.66</v>
@@ -14623,7 +14623,7 @@
         <v>1.23</v>
       </c>
       <c r="W105" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14719,7 +14719,7 @@
         <v>3.75</v>
       </c>
       <c r="J106" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K106" t="n">
         <v>3.75</v>
@@ -14755,7 +14755,7 @@
         <v>2.06</v>
       </c>
       <c r="V106" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W106" t="n">
         <v>1.68</v>
@@ -14845,10 +14845,10 @@
         <v>2.14</v>
       </c>
       <c r="G107" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H107" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I107" t="n">
         <v>3.8</v>
@@ -14866,13 +14866,13 @@
         <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O107" t="n">
         <v>1.18</v>
       </c>
       <c r="P107" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q107" t="n">
         <v>1.56</v>
@@ -14893,7 +14893,7 @@
         <v>1.36</v>
       </c>
       <c r="W107" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X107" t="n">
         <v>1000</v>
@@ -14986,10 +14986,10 @@
         <v>1.09</v>
       </c>
       <c r="I108" t="n">
-        <v>970</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="K108" t="n">
         <v>110</v>
@@ -15025,7 +15025,7 @@
         <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="W108" t="n">
         <v>1.37</v>
@@ -15145,7 +15145,7 @@
         <v>1.26</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.06</v>
+        <v>1.34</v>
       </c>
       <c r="R109" t="n">
         <v>1.26</v>
@@ -15157,7 +15157,7 @@
         <v>2.02</v>
       </c>
       <c r="U109" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V109" t="n">
         <v>1.13</v>
@@ -15250,7 +15250,7 @@
         <v>1.72</v>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H110" t="n">
         <v>5.3</v>
@@ -15259,7 +15259,7 @@
         <v>6</v>
       </c>
       <c r="J110" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K110" t="n">
         <v>4.2</v>
@@ -15271,16 +15271,16 @@
         <v>1.07</v>
       </c>
       <c r="N110" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O110" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P110" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q110" t="n">
         <v>1.94</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>1.93</v>
       </c>
       <c r="R110" t="n">
         <v>1.35</v>
@@ -15298,7 +15298,7 @@
         <v>1.2</v>
       </c>
       <c r="W110" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X110" t="n">
         <v>18</v>
@@ -15385,16 +15385,16 @@
         <v>1.36</v>
       </c>
       <c r="G111" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H111" t="n">
         <v>7.2</v>
       </c>
       <c r="I111" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="J111" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K111" t="n">
         <v>950</v>
@@ -15433,7 +15433,7 @@
         <v>1.07</v>
       </c>
       <c r="W111" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X111" t="n">
         <v>1000</v>
@@ -15658,13 +15658,13 @@
         <v>2.76</v>
       </c>
       <c r="H113" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I113" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="K113" t="n">
         <v>4.3</v>
@@ -15700,7 +15700,7 @@
         <v>1.01</v>
       </c>
       <c r="V113" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W113" t="n">
         <v>1.56</v>
@@ -15790,19 +15790,19 @@
         <v>1.48</v>
       </c>
       <c r="G114" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H114" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I114" t="n">
         <v>1000</v>
       </c>
       <c r="J114" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K114" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -15817,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q114" t="n">
         <v>2.1</v>
@@ -15925,7 +15925,7 @@
         <v>3.55</v>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H115" t="n">
         <v>2.3</v>
@@ -15934,7 +15934,7 @@
         <v>2.48</v>
       </c>
       <c r="J115" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K115" t="n">
         <v>3.35</v>
@@ -16057,112 +16057,112 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="G116" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="H116" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I116" t="n">
         <v>10.5</v>
       </c>
-      <c r="I116" t="n">
-        <v>11.5</v>
-      </c>
       <c r="J116" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K116" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L116" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M116" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N116" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O116" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P116" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R116" t="n">
         <v>1.25</v>
       </c>
       <c r="S116" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T116" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="U116" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="V116" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W116" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="X116" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Z116" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA116" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AB116" t="n">
         <v>5.7</v>
       </c>
       <c r="AC116" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD116" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AE116" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AF116" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG116" t="n">
         <v>13</v>
       </c>
       <c r="AH116" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI116" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AJ116" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK116" t="n">
         <v>23</v>
       </c>
       <c r="AL116" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM116" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="AN116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO116" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117">
@@ -16201,7 +16201,7 @@
         <v>2.16</v>
       </c>
       <c r="I117" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J117" t="n">
         <v>3.2</v>
@@ -16225,7 +16225,7 @@
         <v>1.57</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="R117" t="n">
         <v>1.21</v>
@@ -16240,7 +16240,7 @@
         <v>1.79</v>
       </c>
       <c r="V117" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="W117" t="n">
         <v>1.3</v>
@@ -16273,7 +16273,7 @@
         <v>32</v>
       </c>
       <c r="AG117" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AH117" t="n">
         <v>32</v>
@@ -16342,7 +16342,7 @@
         <v>4.2</v>
       </c>
       <c r="K118" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L118" t="n">
         <v>1.47</v>
@@ -16378,7 +16378,7 @@
         <v>1.1</v>
       </c>
       <c r="W118" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X118" t="n">
         <v>13</v>
@@ -16411,7 +16411,7 @@
         <v>11</v>
       </c>
       <c r="AH118" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI118" t="n">
         <v>250</v>
@@ -16468,7 +16468,7 @@
         <v>2.9</v>
       </c>
       <c r="H119" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I119" t="n">
         <v>3.1</v>
@@ -16477,7 +16477,7 @@
         <v>3.2</v>
       </c>
       <c r="K119" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L119" t="n">
         <v>1.46</v>
@@ -16486,19 +16486,19 @@
         <v>1.09</v>
       </c>
       <c r="N119" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O119" t="n">
         <v>1.39</v>
       </c>
       <c r="P119" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R119" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S119" t="n">
         <v>4</v>
@@ -16510,7 +16510,7 @@
         <v>2.02</v>
       </c>
       <c r="V119" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W119" t="n">
         <v>1.54</v>
@@ -16735,19 +16735,19 @@
         <v>1.69</v>
       </c>
       <c r="G121" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H121" t="n">
         <v>5.7</v>
       </c>
       <c r="I121" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J121" t="n">
         <v>3.65</v>
       </c>
       <c r="K121" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L121" t="n">
         <v>1.44</v>
@@ -16870,7 +16870,7 @@
         <v>2.44</v>
       </c>
       <c r="G122" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="H122" t="n">
         <v>2.6</v>
@@ -16882,7 +16882,7 @@
         <v>2.64</v>
       </c>
       <c r="K122" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="L122" t="n">
         <v>1.01</v>
@@ -16906,7 +16906,7 @@
         <v>1.18</v>
       </c>
       <c r="S122" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T122" t="n">
         <v>1.01</v>
@@ -16915,10 +16915,10 @@
         <v>1.01</v>
       </c>
       <c r="V122" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W122" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X122" t="n">
         <v>1000</v>
@@ -17017,7 +17017,7 @@
         <v>3.5</v>
       </c>
       <c r="K123" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L123" t="n">
         <v>1.4</v>
@@ -17041,7 +17041,7 @@
         <v>1.4</v>
       </c>
       <c r="S123" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T123" t="n">
         <v>1.77</v>
@@ -17053,7 +17053,7 @@
         <v>1.3</v>
       </c>
       <c r="W123" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X123" t="n">
         <v>14</v>
@@ -17152,10 +17152,10 @@
         <v>4.2</v>
       </c>
       <c r="K124" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L124" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M124" t="n">
         <v>1.05</v>
@@ -17167,7 +17167,7 @@
         <v>1.24</v>
       </c>
       <c r="P124" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q124" t="n">
         <v>1.73</v>
@@ -17176,10 +17176,10 @@
         <v>1.51</v>
       </c>
       <c r="S124" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T124" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U124" t="n">
         <v>2.22</v>
@@ -17200,7 +17200,7 @@
         <v>46</v>
       </c>
       <c r="AA124" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB124" t="n">
         <v>10.5</v>
@@ -17233,7 +17233,7 @@
         <v>15.5</v>
       </c>
       <c r="AL124" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM124" t="n">
         <v>90</v>
@@ -17305,7 +17305,7 @@
         <v>1.47</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="R125" t="n">
         <v>1.16</v>
@@ -17410,10 +17410,10 @@
         <v>2.72</v>
       </c>
       <c r="G126" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H126" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I126" t="n">
         <v>2.96</v>
@@ -17431,88 +17431,88 @@
         <v>1.06</v>
       </c>
       <c r="N126" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O126" t="n">
         <v>1.32</v>
       </c>
       <c r="P126" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q126" t="n">
         <v>1.9</v>
       </c>
       <c r="R126" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S126" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="T126" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U126" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V126" t="n">
         <v>1.51</v>
       </c>
       <c r="W126" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X126" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y126" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z126" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AA126" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH126" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC126" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>25</v>
-      </c>
       <c r="AI126" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ126" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AK126" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL126" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM126" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN126" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO126" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="127">
@@ -17545,7 +17545,7 @@
         <v>1.09</v>
       </c>
       <c r="G127" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H127" t="n">
         <v>1.09</v>
@@ -17554,7 +17554,7 @@
         <v>2.44</v>
       </c>
       <c r="J127" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K127" t="n">
         <v>110</v>
@@ -17566,22 +17566,22 @@
         <v>1.01</v>
       </c>
       <c r="N127" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="O127" t="n">
         <v>1.28</v>
       </c>
       <c r="P127" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q127" t="n">
         <v>1.71</v>
       </c>
       <c r="R127" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S127" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T127" t="n">
         <v>1.01</v>
@@ -17590,10 +17590,10 @@
         <v>1.01</v>
       </c>
       <c r="V127" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W127" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X127" t="n">
         <v>1000</v>
@@ -17680,7 +17680,7 @@
         <v>3.85</v>
       </c>
       <c r="G128" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H128" t="n">
         <v>2.02</v>
@@ -17689,7 +17689,7 @@
         <v>2.44</v>
       </c>
       <c r="J128" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="K128" t="n">
         <v>110</v>
@@ -17728,7 +17728,7 @@
         <v>1.69</v>
       </c>
       <c r="W128" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X128" t="n">
         <v>1000</v>
@@ -17815,7 +17815,7 @@
         <v>1.97</v>
       </c>
       <c r="G129" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>3.75</v>
@@ -17956,7 +17956,7 @@
         <v>2.68</v>
       </c>
       <c r="I130" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J130" t="n">
         <v>3.45</v>
@@ -17968,10 +17968,10 @@
         <v>1.01</v>
       </c>
       <c r="M130" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N130" t="n">
-        <v>2.12</v>
+        <v>4.3</v>
       </c>
       <c r="O130" t="n">
         <v>1.24</v>
@@ -17983,10 +17983,10 @@
         <v>1.71</v>
       </c>
       <c r="R130" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S130" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="T130" t="n">
         <v>1.6</v>
@@ -18001,58 +18001,58 @@
         <v>1.56</v>
       </c>
       <c r="X130" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y130" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA130" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB130" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC130" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD130" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE130" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF130" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG130" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH130" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI130" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ130" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK130" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL130" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM130" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN130" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO130" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
@@ -18082,22 +18082,22 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G131" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H131" t="n">
         <v>2.1</v>
       </c>
       <c r="I131" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J131" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K131" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L131" t="n">
         <v>1.44</v>
@@ -18106,7 +18106,7 @@
         <v>1.07</v>
       </c>
       <c r="N131" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="O131" t="n">
         <v>1.34</v>
@@ -18121,7 +18121,7 @@
         <v>1.26</v>
       </c>
       <c r="S131" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="T131" t="n">
         <v>1.71</v>
@@ -18130,10 +18130,10 @@
         <v>1.84</v>
       </c>
       <c r="V131" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W131" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X131" t="n">
         <v>1000</v>
@@ -18253,7 +18253,7 @@
         <v>1.97</v>
       </c>
       <c r="R132" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S132" t="n">
         <v>3.15</v>
@@ -18376,19 +18376,19 @@
         <v>1.01</v>
       </c>
       <c r="N133" t="n">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="O133" t="n">
-        <v>1.45</v>
+        <v>1.02</v>
       </c>
       <c r="P133" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R133" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S133" t="n">
         <v>4.4</v>
@@ -18502,7 +18502,7 @@
         <v>4.6</v>
       </c>
       <c r="K134" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L134" t="n">
         <v>1.01</v>
@@ -18649,13 +18649,13 @@
         <v>1.3</v>
       </c>
       <c r="O135" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P135" t="n">
         <v>1.3</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R135" t="n">
         <v>1.18</v>
@@ -18760,7 +18760,7 @@
         <v>1.83</v>
       </c>
       <c r="G136" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H136" t="n">
         <v>5.1</v>
@@ -18784,7 +18784,7 @@
         <v>2.94</v>
       </c>
       <c r="O136" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P136" t="n">
         <v>1.66</v>
@@ -18808,7 +18808,7 @@
         <v>1.21</v>
       </c>
       <c r="W136" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X136" t="n">
         <v>13</v>
@@ -18925,7 +18925,7 @@
         <v>2.28</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R137" t="n">
         <v>1.51</v>
@@ -19033,13 +19033,13 @@
         <v>1.66</v>
       </c>
       <c r="H138" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I138" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J138" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="K138" t="n">
         <v>1000</v>
@@ -19051,22 +19051,22 @@
         <v>1.01</v>
       </c>
       <c r="N138" t="n">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="O138" t="n">
         <v>1.3</v>
       </c>
       <c r="P138" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q138" t="n">
         <v>1.74</v>
       </c>
       <c r="R138" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S138" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T138" t="n">
         <v>1.01</v>
@@ -19075,7 +19075,7 @@
         <v>1.67</v>
       </c>
       <c r="V138" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W138" t="n">
         <v>2.5</v>
@@ -19162,19 +19162,19 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G139" t="n">
         <v>2.82</v>
       </c>
       <c r="H139" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="I139" t="n">
         <v>2.88</v>
       </c>
       <c r="J139" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K139" t="n">
         <v>3.9</v>
@@ -19186,7 +19186,7 @@
         <v>1.05</v>
       </c>
       <c r="N139" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O139" t="n">
         <v>1.25</v>
@@ -19207,7 +19207,7 @@
         <v>1.54</v>
       </c>
       <c r="U139" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V139" t="n">
         <v>1.53</v>
@@ -19249,7 +19249,7 @@
         <v>19</v>
       </c>
       <c r="AI139" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ139" t="n">
         <v>980</v>
@@ -19297,22 +19297,22 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G140" t="n">
-        <v>2.36</v>
+        <v>970</v>
       </c>
       <c r="H140" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I140" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J140" t="n">
-        <v>2.46</v>
+        <v>1.09</v>
       </c>
       <c r="K140" t="n">
-        <v>4.6</v>
+        <v>110</v>
       </c>
       <c r="L140" t="n">
         <v>1.01</v>
@@ -19321,22 +19321,22 @@
         <v>1.01</v>
       </c>
       <c r="N140" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="O140" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q140" t="n">
         <v>1.42</v>
       </c>
-      <c r="P140" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R140" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="S140" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T140" t="n">
         <v>1.01</v>
@@ -19345,7 +19345,7 @@
         <v>1.01</v>
       </c>
       <c r="V140" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W140" t="n">
         <v>1.74</v>
